--- a/Code/Results/Cases/Case_4_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_29/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,8 +447,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -482,8 +488,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -520,8 +529,11 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -558,8 +570,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -596,8 +611,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -634,8 +652,11 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -672,8 +693,11 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -710,8 +734,11 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -748,8 +775,11 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -786,8 +816,11 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -824,8 +857,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -862,8 +898,11 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -900,8 +939,11 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -938,8 +980,11 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -976,8 +1021,11 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1014,8 +1062,11 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1052,8 +1103,11 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1090,8 +1144,11 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1128,8 +1185,11 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1166,8 +1226,11 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1204,8 +1267,11 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1242,8 +1308,11 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1280,8 +1349,11 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_29/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>4.464403954502984</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.8748685897092798</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1976938611499719</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.03358400292089136</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0008039429469017484</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,33 +451,39 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1491818557858409</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.6742831046193061</v>
+      </c>
+      <c r="N2">
+        <v>1.699655767087023</v>
+      </c>
+      <c r="O2">
+        <v>2.596445079268605</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3.881704507551206</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.75050168075839</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.1700241138729268</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.0311950777986052</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0008148024388024184</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -486,33 +498,39 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1349511129276948</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.5894978159019431</v>
+      </c>
+      <c r="N3">
+        <v>1.704475509088894</v>
+      </c>
+      <c r="O3">
+        <v>2.358350718945815</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>3.532678906630508</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.6756985345601549</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.1534276814905411</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.02975319519306652</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0008216202639803057</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -527,33 +545,39 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1264947056172758</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.5387676117859783</v>
+      </c>
+      <c r="N4">
+        <v>1.709938623515015</v>
+      </c>
+      <c r="O4">
+        <v>2.218247272956731</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3.392358580836742</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.6455437482341324</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.146748907072876</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.0291703955292153</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008244392024275095</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -568,33 +592,39 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1231120960842205</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.5183862829532444</v>
+      </c>
+      <c r="N5">
+        <v>1.712747050094748</v>
+      </c>
+      <c r="O5">
+        <v>2.162515054741064</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>3.369165933973647</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.6405546449539656</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.1456446061828274</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.0290738704605662</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008249098175271678</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -609,33 +639,39 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1225540483600014</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.5150184346984261</v>
+      </c>
+      <c r="N6">
+        <v>1.713247253234769</v>
+      </c>
+      <c r="O6">
+        <v>2.153338331917482</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>3.53077912544785</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.675290607621605</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1533372854138264</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.02974531784489098</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008216581130322117</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -650,33 +686,39 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1264488388027445</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.5384916141268334</v>
+      </c>
+      <c r="N7">
+        <v>1.709974200932265</v>
+      </c>
+      <c r="O7">
+        <v>2.217490349578114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>4.261487400300268</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.8316227529424509</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.1880626408805881</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.03275417435850336</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0008076579862003053</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -691,33 +733,39 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1442120786378709</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.6447465302418678</v>
+      </c>
+      <c r="N8">
+        <v>1.700767815233959</v>
+      </c>
+      <c r="O8">
+        <v>2.512978875115323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>5.778820254036759</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1.153852428292112</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.2600159631684704</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.03893037557163304</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007812468515133365</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -732,33 +780,39 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.18165120066638</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.8658281520633864</v>
+      </c>
+      <c r="N9">
+        <v>1.705014594387251</v>
+      </c>
+      <c r="O9">
+        <v>3.149451181809411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>6.969299888699823</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1.405512652480127</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.3164290327751758</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.04376580918291317</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007622408372992731</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -773,33 +827,39 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2113469859618675</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.039531469493198</v>
+      </c>
+      <c r="N10">
+        <v>1.725673667580182</v>
+      </c>
+      <c r="O10">
+        <v>3.665959302391883</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>7.533902140768646</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1.524709831381415</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.3431888564612819</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.04606670592773909</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007536168330402602</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -814,33 +874,39 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2254935214703977</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.121957499982855</v>
+      </c>
+      <c r="N11">
+        <v>1.739957596713808</v>
+      </c>
+      <c r="O11">
+        <v>3.915396445042035</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>7.751683170377248</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1.570674849260058</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.3535128399959149</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.04695636220954569</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007503478382811861</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -855,33 +921,39 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2309583935381596</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.153756690240449</v>
+      </c>
+      <c r="N12">
+        <v>1.746179084815765</v>
+      </c>
+      <c r="O12">
+        <v>4.012323972540315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>7.704591323867646</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1.56073597022953</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.3512803210794715</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.04676387346197863</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007510521349172183</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -896,33 +968,39 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2297763497261087</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.146880374828775</v>
+      </c>
+      <c r="N13">
+        <v>1.744801075139208</v>
+      </c>
+      <c r="O13">
+        <v>3.991332027738508</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>7.551735153809318</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1.528473858552729</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.344034187399032</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.04613950604481865</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007533479973522998</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -937,33 +1015,39 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2259408550194593</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.124561276929782</v>
+      </c>
+      <c r="N14">
+        <v>1.740452458266532</v>
+      </c>
+      <c r="O14">
+        <v>3.923318723570674</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>7.458646175332547</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1.508825073588014</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.3396216198711954</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.04575957951039022</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007547536432848984</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -978,33 +1062,39 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2236060808620692</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.110969677599002</v>
+      </c>
+      <c r="N15">
+        <v>1.737898213150999</v>
+      </c>
+      <c r="O15">
+        <v>3.881993176859453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>6.932919744560024</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1.397829902643878</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.3147049726729705</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.04361778500818225</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007628043530991668</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1019,33 +1109,39 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.210436631990973</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.034221154543346</v>
+      </c>
+      <c r="N16">
+        <v>1.724847451911458</v>
+      </c>
+      <c r="O16">
+        <v>3.649981035009546</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>6.616743915600694</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1.331043951367576</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.2997220677665666</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.0423322657325631</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007677445843448094</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1060,33 +1156,39 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2025316359110718</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9880745788893108</v>
+      </c>
+      <c r="N17">
+        <v>1.718164911602116</v>
+      </c>
+      <c r="O17">
+        <v>3.511612878999273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>6.43701134712569</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1.293063927635387</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.2912053053320562</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.04160213070037777</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.000770588581568107</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1101,33 +1203,39 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1980438094648349</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9618463771027947</v>
+      </c>
+      <c r="N18">
+        <v>1.714773579680212</v>
+      </c>
+      <c r="O18">
+        <v>3.433362687730892</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>6.376503279107681</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1.280274867114429</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.2883381142733441</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.0413564064045655</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007715521190811157</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1142,33 +1250,39 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1965339778229236</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9530172349011963</v>
+      </c>
+      <c r="N19">
+        <v>1.713699974441425</v>
+      </c>
+      <c r="O19">
+        <v>3.407087106124493</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>6.650177161443821</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1.338107567330212</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.3013063497949275</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.04246812777012643</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007672184719714171</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1183,33 +1297,39 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2033669297904908</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9929538091049963</v>
+      </c>
+      <c r="N20">
+        <v>1.718828734802855</v>
+      </c>
+      <c r="O20">
+        <v>3.52620157871209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>7.596518856482589</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1.537926231307324</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.3461570881507043</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.04632236553505109</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007526737925542323</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1224,33 +1344,39 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2270643620531558</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.131100174294708</v>
+      </c>
+      <c r="N21">
+        <v>1.741706726816915</v>
+      </c>
+      <c r="O21">
+        <v>3.943225359248544</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>8.23859686103583</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1.673434102844851</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.3766004749332552</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.04895069546237174</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.00074314507779707</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1265,33 +1391,39 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2431904828124658</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.224861692129366</v>
+      </c>
+      <c r="N22">
+        <v>1.761460923305634</v>
+      </c>
+      <c r="O22">
+        <v>4.230412885209347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>7.893497333819028</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1.600604302626039</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.3602363365630907</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.04753643029704691</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.000748235263897131</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1306,33 +1438,39 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2345191456321771</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.174464975903874</v>
+      </c>
+      <c r="N23">
+        <v>1.750436568243344</v>
+      </c>
+      <c r="O23">
+        <v>4.075648109517346</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>6.63505568187702</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1.334912821358671</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.3005897958103247</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.04240667701188272</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007674563150632135</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1347,33 +1485,39 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2029891175004082</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9907469752484346</v>
+      </c>
+      <c r="N24">
+        <v>1.718527225033</v>
+      </c>
+      <c r="O24">
+        <v>3.51960200838792</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>5.357014907792177</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1.064498332123009</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.24002461798176</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.03721794747684903</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007883026145511458</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1388,10 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1711870135166791</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.8043253683084544</v>
+      </c>
+      <c r="N25">
+        <v>1.701106585385304</v>
+      </c>
+      <c r="O25">
+        <v>2.969830330379537</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_29/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.464403954502984</v>
+        <v>0.6362785060496776</v>
       </c>
       <c r="C2">
-        <v>0.8748685897092798</v>
+        <v>0.5098399555525646</v>
       </c>
       <c r="D2">
-        <v>0.1976938611499719</v>
+        <v>0.1823660311565476</v>
       </c>
       <c r="E2">
-        <v>0.03358400292089136</v>
+        <v>0.008616255063343292</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008039429469017484</v>
+        <v>0.0008699350784812556</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>9.982337590335078</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.131115526230417</v>
       </c>
       <c r="L2">
-        <v>0.1491818557858409</v>
+        <v>0.2313726930346434</v>
       </c>
       <c r="M2">
-        <v>0.6742831046193061</v>
+        <v>0.1881750902004029</v>
       </c>
       <c r="N2">
-        <v>1.699655767087023</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2.596445079268605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.881704507551206</v>
+        <v>0.5602833283114705</v>
       </c>
       <c r="C3">
-        <v>0.75050168075839</v>
+        <v>0.4424491625385656</v>
       </c>
       <c r="D3">
-        <v>0.1700241138729268</v>
+        <v>0.1572206664321385</v>
       </c>
       <c r="E3">
-        <v>0.0311950777986052</v>
+        <v>0.008722604908283138</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008148024388024184</v>
+        <v>0.000880591740508692</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>8.902819380325781</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.9898909689275115</v>
       </c>
       <c r="L3">
-        <v>0.1349511129276948</v>
+        <v>0.2095448972231821</v>
       </c>
       <c r="M3">
-        <v>0.5894978159019431</v>
+        <v>0.1683162765078983</v>
       </c>
       <c r="N3">
-        <v>1.704475509088894</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2.358350718945815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.532678906630508</v>
+        <v>0.5165104926889512</v>
       </c>
       <c r="C4">
-        <v>0.6756985345601549</v>
+        <v>0.4018329530999836</v>
       </c>
       <c r="D4">
-        <v>0.1534276814905411</v>
+        <v>0.1421089613929496</v>
       </c>
       <c r="E4">
-        <v>0.02975319519306652</v>
+        <v>0.008794316680200143</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008216202639803057</v>
+        <v>0.0008872681457821122</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>8.250415658172159</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.9065183461766821</v>
       </c>
       <c r="L4">
-        <v>0.1264947056172758</v>
+        <v>0.1964875450859864</v>
       </c>
       <c r="M4">
-        <v>0.5387676117859783</v>
+        <v>0.1566859347536784</v>
       </c>
       <c r="N4">
-        <v>1.709938623515015</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>2.218247272956731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.392358580836742</v>
+        <v>0.4993224480238325</v>
       </c>
       <c r="C5">
-        <v>0.6455437482341324</v>
+        <v>0.3854444802434784</v>
       </c>
       <c r="D5">
-        <v>0.146748907072876</v>
+        <v>0.1360214313517929</v>
       </c>
       <c r="E5">
-        <v>0.0291703955292153</v>
+        <v>0.008825118990961556</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008244392024275095</v>
+        <v>0.0008900252384615407</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>7.986719234033046</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.873286109969996</v>
       </c>
       <c r="L5">
-        <v>0.1231120960842205</v>
+        <v>0.1912437412981873</v>
       </c>
       <c r="M5">
-        <v>0.5183862829532444</v>
+        <v>0.1520736832794967</v>
       </c>
       <c r="N5">
-        <v>1.712747050094748</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>2.162515054741064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.369165933973647</v>
+        <v>0.4965055406864849</v>
       </c>
       <c r="C6">
-        <v>0.6405546449539656</v>
+        <v>0.382732244722547</v>
       </c>
       <c r="D6">
-        <v>0.1456446061828274</v>
+        <v>0.1350145439307084</v>
       </c>
       <c r="E6">
-        <v>0.0290738704605662</v>
+        <v>0.008830328195369275</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008249098175271678</v>
+        <v>0.0008904853305418482</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>7.943050756656049</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.8678101357838841</v>
       </c>
       <c r="L6">
-        <v>0.1225540483600014</v>
+        <v>0.1903774101233182</v>
       </c>
       <c r="M6">
-        <v>0.5150184346984261</v>
+        <v>0.151315112743621</v>
       </c>
       <c r="N6">
-        <v>1.713247253234769</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>2.153338331917482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.53077912544785</v>
+        <v>0.5162761533445064</v>
       </c>
       <c r="C7">
-        <v>0.675290607621605</v>
+        <v>0.4016113084239805</v>
       </c>
       <c r="D7">
-        <v>0.1533372854138264</v>
+        <v>0.1420265916539023</v>
       </c>
       <c r="E7">
-        <v>0.02974531784489098</v>
+        <v>0.008794725737000575</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008216581130322117</v>
+        <v>0.0008873051775308427</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>8.246851169560358</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.9060672781237145</v>
       </c>
       <c r="L7">
-        <v>0.1264488388027445</v>
+        <v>0.1964165248326424</v>
       </c>
       <c r="M7">
-        <v>0.5384916141268334</v>
+        <v>0.1566232351967827</v>
       </c>
       <c r="N7">
-        <v>1.709974200932265</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>2.217490349578114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.261487400300268</v>
+        <v>0.60942710846777</v>
       </c>
       <c r="C8">
-        <v>0.8316227529424509</v>
+        <v>0.4864272750847363</v>
       </c>
       <c r="D8">
-        <v>0.1880626408805881</v>
+        <v>0.1736204323645438</v>
       </c>
       <c r="E8">
-        <v>0.03275417435850336</v>
+        <v>0.008651571779897838</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008076579862003053</v>
+        <v>0.0008735837029878251</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>9.607665570157167</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.081666407023619</v>
       </c>
       <c r="L8">
-        <v>0.1442120786378709</v>
+        <v>0.223768789534958</v>
       </c>
       <c r="M8">
-        <v>0.6447465302418678</v>
+        <v>0.1812017727363582</v>
       </c>
       <c r="N8">
-        <v>1.700767815233959</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>2.512978875115323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.778820254036759</v>
+        <v>0.8189641133404564</v>
       </c>
       <c r="C9">
-        <v>1.153852428292112</v>
+        <v>0.6602649508759839</v>
       </c>
       <c r="D9">
-        <v>0.2600159631684704</v>
+        <v>0.2387787548041729</v>
       </c>
       <c r="E9">
-        <v>0.03893037557163304</v>
+        <v>0.008423565194950577</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007812468515133365</v>
+        <v>0.0008475838907374461</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>12.38236121473531</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.457510736996028</v>
       </c>
       <c r="L9">
-        <v>0.18165120066638</v>
+        <v>0.2806336912465355</v>
       </c>
       <c r="M9">
-        <v>0.8658281520633864</v>
+        <v>0.2346067549525941</v>
       </c>
       <c r="N9">
-        <v>1.705014594387251</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>3.149451181809411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.969299888699823</v>
+        <v>0.9957148994102454</v>
       </c>
       <c r="C10">
-        <v>1.405512652480127</v>
+        <v>0.7949297669792941</v>
       </c>
       <c r="D10">
-        <v>0.3164290327751758</v>
+        <v>0.2895752410426979</v>
       </c>
       <c r="E10">
-        <v>0.04376580918291317</v>
+        <v>0.008291405371780525</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007622408372992731</v>
+        <v>0.0008287966659708053</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>14.52333053418707</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.760949036662737</v>
       </c>
       <c r="L10">
-        <v>0.2113469859618675</v>
+        <v>0.3251668628220159</v>
       </c>
       <c r="M10">
-        <v>1.039531469493198</v>
+        <v>0.2782145697611114</v>
       </c>
       <c r="N10">
-        <v>1.725673667580182</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>3.665959302391883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.533902140768646</v>
+        <v>1.082833357742999</v>
       </c>
       <c r="C11">
-        <v>1.524709831381415</v>
+        <v>0.8583381097452332</v>
       </c>
       <c r="D11">
-        <v>0.3431888564612819</v>
+        <v>0.3135810137141704</v>
       </c>
       <c r="E11">
-        <v>0.04606670592773909</v>
+        <v>0.008239924930115272</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007536168330402602</v>
+        <v>0.0008202541679032116</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>15.52968168673272</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.907128658915525</v>
       </c>
       <c r="L11">
-        <v>0.2254935214703977</v>
+        <v>0.3462354244122423</v>
       </c>
       <c r="M11">
-        <v>1.121957499982855</v>
+        <v>0.299327458788575</v>
       </c>
       <c r="N11">
-        <v>1.739957596713808</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>3.915396445042035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.751683170377248</v>
+        <v>1.116967535691998</v>
       </c>
       <c r="C12">
-        <v>1.570674849260058</v>
+        <v>0.8827221604144313</v>
       </c>
       <c r="D12">
-        <v>0.3535128399959149</v>
+        <v>0.3228268590613084</v>
       </c>
       <c r="E12">
-        <v>0.04695636220954569</v>
+        <v>0.00822177883548858</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007503478382811861</v>
+        <v>0.0008170134924903344</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>15.91643668450217</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.963878328665544</v>
       </c>
       <c r="L12">
-        <v>0.2309583935381596</v>
+        <v>0.3543511436021731</v>
       </c>
       <c r="M12">
-        <v>1.153756690240449</v>
+        <v>0.3075387263669285</v>
       </c>
       <c r="N12">
-        <v>1.746179084815765</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>4.012323972540315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.704591323867646</v>
+        <v>1.109562034493905</v>
       </c>
       <c r="C13">
-        <v>1.56073597022953</v>
+        <v>0.8774529104172473</v>
       </c>
       <c r="D13">
-        <v>0.3512803210794715</v>
+        <v>0.3208282239519491</v>
       </c>
       <c r="E13">
-        <v>0.04676387346197863</v>
+        <v>0.008225624985739421</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007510521349172183</v>
+        <v>0.0008177118020179196</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>15.83287187830445</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.951590252508822</v>
       </c>
       <c r="L13">
-        <v>0.2297763497261087</v>
+        <v>0.3525967897324449</v>
       </c>
       <c r="M13">
-        <v>1.146880374828775</v>
+        <v>0.305760077682848</v>
       </c>
       <c r="N13">
-        <v>1.744801075139208</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>3.991332027738508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.551735153809318</v>
+        <v>1.085617522056026</v>
       </c>
       <c r="C14">
-        <v>1.528473858552729</v>
+        <v>0.8603363269504314</v>
       </c>
       <c r="D14">
-        <v>0.344034187399032</v>
+        <v>0.3143383946093934</v>
       </c>
       <c r="E14">
-        <v>0.04613950604481865</v>
+        <v>0.008238404317243708</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007533479973522998</v>
+        <v>0.0008199877126365477</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>15.56138018226767</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.911768114388991</v>
       </c>
       <c r="L14">
-        <v>0.2259408550194593</v>
+        <v>0.3469002206319232</v>
       </c>
       <c r="M14">
-        <v>1.124561276929782</v>
+        <v>0.2999984611480926</v>
       </c>
       <c r="N14">
-        <v>1.740452458266532</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>3.923318723570674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.458646175332547</v>
+        <v>1.071105702934602</v>
       </c>
       <c r="C15">
-        <v>1.508825073588014</v>
+        <v>0.8499025371507116</v>
       </c>
       <c r="D15">
-        <v>0.3396216198711954</v>
+        <v>0.3103842766011979</v>
       </c>
       <c r="E15">
-        <v>0.04575957951039022</v>
+        <v>0.008246411209996807</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007547536432848984</v>
+        <v>0.0008213808084653884</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>15.39585520483297</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.887564840387029</v>
       </c>
       <c r="L15">
-        <v>0.2236060808620692</v>
+        <v>0.343429499054082</v>
       </c>
       <c r="M15">
-        <v>1.110969677599002</v>
+        <v>0.2964985443885411</v>
       </c>
       <c r="N15">
-        <v>1.737898213150999</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>3.881993176859453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.932919744560024</v>
+        <v>0.9901711750906088</v>
       </c>
       <c r="C16">
-        <v>1.397829902643878</v>
+        <v>0.7908343247996754</v>
       </c>
       <c r="D16">
-        <v>0.3147049726729705</v>
+        <v>0.2880266236826117</v>
       </c>
       <c r="E16">
-        <v>0.04361778500818225</v>
+        <v>0.008294952104706543</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007628043530991668</v>
+        <v>0.00082935449539308</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>14.45829798172568</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.751577959358627</v>
       </c>
       <c r="L16">
-        <v>0.210436631990973</v>
+        <v>0.3238080041956977</v>
       </c>
       <c r="M16">
-        <v>1.034221154543346</v>
+        <v>0.2768631397280927</v>
       </c>
       <c r="N16">
-        <v>1.724847451911458</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>3.649981035009546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.616743915600694</v>
+        <v>0.9423575985230741</v>
       </c>
       <c r="C17">
-        <v>1.331043951367576</v>
+        <v>0.7551902900219432</v>
       </c>
       <c r="D17">
-        <v>0.2997220677665666</v>
+        <v>0.2745582941109603</v>
       </c>
       <c r="E17">
-        <v>0.0423322657325631</v>
+        <v>0.008327011212927116</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007677445843448094</v>
+        <v>0.000834242879808699</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>13.89210693184327</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.670387427513162</v>
       </c>
       <c r="L17">
-        <v>0.2025316359110718</v>
+        <v>0.3119922614558845</v>
       </c>
       <c r="M17">
-        <v>0.9880745788893108</v>
+        <v>0.2651657857010186</v>
       </c>
       <c r="N17">
-        <v>1.718164911602116</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>3.511612878999273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.43701134712569</v>
+        <v>0.9154760197713188</v>
       </c>
       <c r="C18">
-        <v>1.293063927635387</v>
+        <v>0.7348866419361002</v>
       </c>
       <c r="D18">
-        <v>0.2912053053320562</v>
+        <v>0.2668944059441429</v>
       </c>
       <c r="E18">
-        <v>0.04160213070037777</v>
+        <v>0.008346256351295822</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.000770588581568107</v>
+        <v>0.0008370553553988901</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>13.569430302537</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.624439880371796</v>
       </c>
       <c r="L18">
-        <v>0.1980438094648349</v>
+        <v>0.3052709773210864</v>
       </c>
       <c r="M18">
-        <v>0.9618463771027947</v>
+        <v>0.2585555615797013</v>
       </c>
       <c r="N18">
-        <v>1.714773579680212</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>3.433362687730892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.376503279107681</v>
+        <v>0.9064758360214853</v>
       </c>
       <c r="C19">
-        <v>1.280274867114429</v>
+        <v>0.7280443857327725</v>
       </c>
       <c r="D19">
-        <v>0.2883381142733441</v>
+        <v>0.2643130263324736</v>
       </c>
       <c r="E19">
-        <v>0.0413564064045655</v>
+        <v>0.00835290794162824</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007715521190811157</v>
+        <v>0.0008380079271579395</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>13.46066147415718</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.609005641260808</v>
       </c>
       <c r="L19">
-        <v>0.1965339778229236</v>
+        <v>0.3030075306725166</v>
       </c>
       <c r="M19">
-        <v>0.9530172349011963</v>
+        <v>0.2563367716729879</v>
       </c>
       <c r="N19">
-        <v>1.713699974441425</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>3.407087106124493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.650177161443821</v>
+        <v>0.9473821212213807</v>
       </c>
       <c r="C20">
-        <v>1.338107567330212</v>
+        <v>0.7589637529752054</v>
       </c>
       <c r="D20">
-        <v>0.3013063497949275</v>
+        <v>0.2759832815743835</v>
       </c>
       <c r="E20">
-        <v>0.04246812777012643</v>
+        <v>0.008323514400355669</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007672184719714171</v>
+        <v>0.0008337224624428579</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>13.95206357037219</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.678951066506755</v>
       </c>
       <c r="L20">
-        <v>0.2033669297904908</v>
+        <v>0.3132421826943101</v>
       </c>
       <c r="M20">
-        <v>0.9929538091049963</v>
+        <v>0.2663985786440648</v>
       </c>
       <c r="N20">
-        <v>1.718828734802855</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>3.52620157871209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.596518856482589</v>
+        <v>1.092617961117782</v>
       </c>
       <c r="C21">
-        <v>1.537926231307324</v>
+        <v>0.8653532054171933</v>
       </c>
       <c r="D21">
-        <v>0.3461570881507043</v>
+        <v>0.3162401663767724</v>
       </c>
       <c r="E21">
-        <v>0.04632236553505109</v>
+        <v>0.00823461314992413</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007526737925542323</v>
+        <v>0.00081931943651111</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>15.64096103732402</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.923425010684298</v>
       </c>
       <c r="L21">
-        <v>0.2270643620531558</v>
+        <v>0.3485695240250521</v>
       </c>
       <c r="M21">
-        <v>1.131100174294708</v>
+        <v>0.3016846269591369</v>
       </c>
       <c r="N21">
-        <v>1.741706726816915</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>3.943225359248544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.23859686103583</v>
+        <v>1.194316009517536</v>
       </c>
       <c r="C22">
-        <v>1.673434102844851</v>
+        <v>0.9370951425802332</v>
       </c>
       <c r="D22">
-        <v>0.3766004749332552</v>
+        <v>0.3434716714838117</v>
       </c>
       <c r="E22">
-        <v>0.04895069546237174</v>
+        <v>0.008184439694892021</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.00074314507779707</v>
+        <v>0.0008098685227071503</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>16.77841252827653</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.091466346884687</v>
       </c>
       <c r="L22">
-        <v>0.2431904828124658</v>
+        <v>0.3724719615116641</v>
       </c>
       <c r="M22">
-        <v>1.224861692129366</v>
+        <v>0.3260264473781547</v>
       </c>
       <c r="N22">
-        <v>1.761460923305634</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>4.230412885209347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.893497333819028</v>
+        <v>1.139349620843888</v>
       </c>
       <c r="C23">
-        <v>1.600604302626039</v>
+        <v>0.8985788370275145</v>
       </c>
       <c r="D23">
-        <v>0.3602363365630907</v>
+        <v>0.3288435102934955</v>
       </c>
       <c r="E23">
-        <v>0.04753643029704691</v>
+        <v>0.00821045070314369</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.000748235263897131</v>
+        <v>0.0008149185089243161</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>16.16787265934187</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.000938591383658</v>
       </c>
       <c r="L23">
-        <v>0.2345191456321771</v>
+        <v>0.359632398650632</v>
       </c>
       <c r="M23">
-        <v>1.174464975903874</v>
+        <v>0.3129051549155974</v>
       </c>
       <c r="N23">
-        <v>1.750436568243344</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>4.075648109517346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.63505568187702</v>
+        <v>0.9451086566527067</v>
       </c>
       <c r="C24">
-        <v>1.334912821358671</v>
+        <v>0.7572571876384586</v>
       </c>
       <c r="D24">
-        <v>0.3005897958103247</v>
+        <v>0.2753387998624959</v>
       </c>
       <c r="E24">
-        <v>0.04240667701188272</v>
+        <v>0.008325092781680588</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007674563150632135</v>
+        <v>0.0008339577363473812</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>13.92494842036598</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.675077187955338</v>
       </c>
       <c r="L24">
-        <v>0.2029891175004082</v>
+        <v>0.312676871373526</v>
       </c>
       <c r="M24">
-        <v>0.9907469752484346</v>
+        <v>0.2658408779665038</v>
       </c>
       <c r="N24">
-        <v>1.718527225033</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>3.51960200838792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.357014907792177</v>
+        <v>0.75879742121748</v>
       </c>
       <c r="C25">
-        <v>1.064498332123009</v>
+        <v>0.612208622630817</v>
       </c>
       <c r="D25">
-        <v>0.24002461798176</v>
+        <v>0.2207166909753795</v>
       </c>
       <c r="E25">
-        <v>0.03721794747684903</v>
+        <v>0.008479312123228222</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007883026145511458</v>
+        <v>0.0008545429901443136</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>11.61679331368043</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.351698449053458</v>
       </c>
       <c r="L25">
-        <v>0.1711870135166791</v>
+        <v>0.2648299929795002</v>
       </c>
       <c r="M25">
-        <v>0.8043253683084544</v>
+        <v>0.2194888450547197</v>
       </c>
       <c r="N25">
-        <v>1.701106585385304</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>2.969830330379537</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_29/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6362785060496776</v>
+        <v>1.004298570496076</v>
       </c>
       <c r="C2">
-        <v>0.5098399555525646</v>
+        <v>0.219705803957936</v>
       </c>
       <c r="D2">
-        <v>0.1823660311565476</v>
+        <v>0.07560893632798127</v>
       </c>
       <c r="E2">
-        <v>0.008616255063343292</v>
+        <v>0.02938583904253911</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008699350784812556</v>
+        <v>0.002673925070024397</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.982337590335078</v>
+        <v>6.044101232948748</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.131115526230417</v>
+        <v>1.112576345822077</v>
       </c>
       <c r="L2">
-        <v>0.2313726930346434</v>
+        <v>0.268027249794244</v>
       </c>
       <c r="M2">
-        <v>0.1881750902004029</v>
+        <v>0.2707570903883685</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5602833283114705</v>
+        <v>1.007702868809133</v>
       </c>
       <c r="C3">
-        <v>0.4424491625385656</v>
+        <v>0.2005545605821055</v>
       </c>
       <c r="D3">
-        <v>0.1572206664321385</v>
+        <v>0.06903916425186196</v>
       </c>
       <c r="E3">
-        <v>0.008722604908283138</v>
+        <v>0.02952661281072405</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.000880591740508692</v>
+        <v>0.002679789338005902</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.902819380325781</v>
+        <v>5.714031392083626</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9898909689275115</v>
+        <v>1.093446645601432</v>
       </c>
       <c r="L3">
-        <v>0.2095448972231821</v>
+        <v>0.2632616166814188</v>
       </c>
       <c r="M3">
-        <v>0.1683162765078983</v>
+        <v>0.2694741372510947</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5165104926889512</v>
+        <v>1.01096208687477</v>
       </c>
       <c r="C4">
-        <v>0.4018329530999836</v>
+        <v>0.1888529921253337</v>
       </c>
       <c r="D4">
-        <v>0.1421089613929496</v>
+        <v>0.0650484898235959</v>
       </c>
       <c r="E4">
-        <v>0.008794316680200143</v>
+        <v>0.02961878800619672</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008872681457821122</v>
+        <v>0.002683571347395843</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>8.250415658172159</v>
+        <v>5.51068234846889</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9065183461766821</v>
+        <v>1.082774347797141</v>
       </c>
       <c r="L4">
-        <v>0.1964875450859864</v>
+        <v>0.2604413552815217</v>
       </c>
       <c r="M4">
-        <v>0.1566859347536784</v>
+        <v>0.2689148003331674</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4993224480238325</v>
+        <v>1.012583182297988</v>
       </c>
       <c r="C5">
-        <v>0.3854444802434784</v>
+        <v>0.184098545961632</v>
       </c>
       <c r="D5">
-        <v>0.1360214313517929</v>
+        <v>0.06343294824789325</v>
       </c>
       <c r="E5">
-        <v>0.008825118990961556</v>
+        <v>0.02965779748381725</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008900252384615407</v>
+        <v>0.002685158317402206</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>7.986719234033046</v>
+        <v>5.427634953416145</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.873286109969996</v>
+        <v>1.078694008875061</v>
       </c>
       <c r="L5">
-        <v>0.1912437412981873</v>
+        <v>0.259318629671327</v>
       </c>
       <c r="M5">
-        <v>0.1520736832794967</v>
+        <v>0.2687441646320288</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4965055406864849</v>
+        <v>1.012870027614667</v>
       </c>
       <c r="C6">
-        <v>0.382732244722547</v>
+        <v>0.1833099104393341</v>
       </c>
       <c r="D6">
-        <v>0.1350145439307084</v>
+        <v>0.06316532956887499</v>
       </c>
       <c r="E6">
-        <v>0.008830328195369275</v>
+        <v>0.02966436251408072</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008904853305418482</v>
+        <v>0.002685424601800401</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>7.943050756656049</v>
+        <v>5.413833809164572</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8678101357838841</v>
+        <v>1.078032666230996</v>
       </c>
       <c r="L6">
-        <v>0.1903774101233182</v>
+        <v>0.2591338038970505</v>
       </c>
       <c r="M6">
-        <v>0.151315112743621</v>
+        <v>0.2687192875469222</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5162761533445064</v>
+        <v>1.010982764783165</v>
       </c>
       <c r="C7">
-        <v>0.4016113084239805</v>
+        <v>0.1887888156649069</v>
       </c>
       <c r="D7">
-        <v>0.1420265916539023</v>
+        <v>0.06502665899917304</v>
       </c>
       <c r="E7">
-        <v>0.008794725737000575</v>
+        <v>0.0296193082357416</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008873051775308427</v>
+        <v>0.002683592564151541</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>8.246851169560358</v>
+        <v>5.509563086721386</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9060672781237145</v>
+        <v>1.082718232521842</v>
       </c>
       <c r="L7">
-        <v>0.1964165248326424</v>
+        <v>0.2604261063768618</v>
       </c>
       <c r="M7">
-        <v>0.1566232351967827</v>
+        <v>0.2689122672589015</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.60942710846777</v>
+        <v>1.005229136023132</v>
       </c>
       <c r="C8">
-        <v>0.4864272750847363</v>
+        <v>0.2130903060053981</v>
       </c>
       <c r="D8">
-        <v>0.1736204323645438</v>
+        <v>0.07333460899845079</v>
       </c>
       <c r="E8">
-        <v>0.008651571779897838</v>
+        <v>0.0294331890493173</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008735837029878251</v>
+        <v>0.002675909540963902</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.607665570157167</v>
+        <v>5.930429869587641</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.081666407023619</v>
+        <v>1.105756891236382</v>
       </c>
       <c r="L8">
-        <v>0.223768789534958</v>
+        <v>0.2663620472332013</v>
       </c>
       <c r="M8">
-        <v>0.1812017727363582</v>
+        <v>0.2702672395142685</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8189641133404564</v>
+        <v>1.003270041043294</v>
       </c>
       <c r="C9">
-        <v>0.6602649508759839</v>
+        <v>0.2612208456589542</v>
       </c>
       <c r="D9">
-        <v>0.2387787548041729</v>
+        <v>0.08997783168203455</v>
       </c>
       <c r="E9">
-        <v>0.008423565194950577</v>
+        <v>0.02911356822302785</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008475838907374461</v>
+        <v>0.002662273881923447</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.38236121473531</v>
+        <v>6.750751370329482</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.457510736996028</v>
+        <v>1.159513009831841</v>
       </c>
       <c r="L9">
-        <v>0.2806336912465355</v>
+        <v>0.278846222161377</v>
       </c>
       <c r="M9">
-        <v>0.2346067549525941</v>
+        <v>0.2747435567707797</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9957148994102454</v>
+        <v>1.007586410388342</v>
       </c>
       <c r="C10">
-        <v>0.7949297669792941</v>
+        <v>0.2969038916173758</v>
       </c>
       <c r="D10">
-        <v>0.2895752410426979</v>
+        <v>0.102433171083419</v>
       </c>
       <c r="E10">
-        <v>0.008291405371780525</v>
+        <v>0.02890614522330259</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008287966659708053</v>
+        <v>0.002653116707248984</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.52333053418707</v>
+        <v>7.351057501380865</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.760949036662737</v>
+        <v>1.204328479752121</v>
       </c>
       <c r="L10">
-        <v>0.3251668628220159</v>
+        <v>0.2885395468487673</v>
       </c>
       <c r="M10">
-        <v>0.2782145697611114</v>
+        <v>0.2791522669366202</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.082833357742999</v>
+        <v>1.01081605970839</v>
       </c>
       <c r="C11">
-        <v>0.8583381097452332</v>
+        <v>0.3132140371980086</v>
       </c>
       <c r="D11">
-        <v>0.3135810137141704</v>
+        <v>0.1081518564441382</v>
       </c>
       <c r="E11">
-        <v>0.008239924930115272</v>
+        <v>0.02881768091288617</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008202541679032116</v>
+        <v>0.002649135399668317</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.52968168673272</v>
+        <v>7.623782787143057</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.907128658915525</v>
+        <v>1.225892425857438</v>
       </c>
       <c r="L11">
-        <v>0.3462354244122423</v>
+        <v>0.2930640683485279</v>
       </c>
       <c r="M11">
-        <v>0.299327458788575</v>
+        <v>0.2814036139702836</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.116967535691998</v>
+        <v>1.012222427600221</v>
       </c>
       <c r="C12">
-        <v>0.8827221604144313</v>
+        <v>0.31940196416096</v>
       </c>
       <c r="D12">
-        <v>0.3228268590613084</v>
+        <v>0.1103251733168946</v>
       </c>
       <c r="E12">
-        <v>0.00822177883548858</v>
+        <v>0.02878502521058401</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008170134924903344</v>
+        <v>0.002647654103313585</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>15.91643668450217</v>
+        <v>7.727016495331668</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.963878328665544</v>
+        <v>1.234229023578933</v>
       </c>
       <c r="L12">
-        <v>0.3543511436021731</v>
+        <v>0.2947940304423895</v>
       </c>
       <c r="M12">
-        <v>0.3075387263669285</v>
+        <v>0.2822916818910457</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.109562034493905</v>
+        <v>1.011911364546677</v>
       </c>
       <c r="C13">
-        <v>0.8774529104172473</v>
+        <v>0.3180687589358797</v>
       </c>
       <c r="D13">
-        <v>0.3208282239519491</v>
+        <v>0.1098567616565873</v>
       </c>
       <c r="E13">
-        <v>0.008225624985739421</v>
+        <v>0.02879202072951914</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008177118020179196</v>
+        <v>0.002647971958321712</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>15.83287187830445</v>
+        <v>7.704784952756427</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.951590252508822</v>
+        <v>1.232425967048528</v>
       </c>
       <c r="L13">
-        <v>0.3525967897324449</v>
+        <v>0.2944207113219335</v>
       </c>
       <c r="M13">
-        <v>0.305760077682848</v>
+        <v>0.2820988372734732</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.085617522056026</v>
+        <v>1.010928079844746</v>
       </c>
       <c r="C14">
-        <v>0.8603363269504314</v>
+        <v>0.3137228860098844</v>
       </c>
       <c r="D14">
-        <v>0.3143383946093934</v>
+        <v>0.1083304995614327</v>
       </c>
       <c r="E14">
-        <v>0.008238404317243708</v>
+        <v>0.02881497741823524</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008199877126365477</v>
+        <v>0.002649013005413355</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.56138018226767</v>
+        <v>7.632276659636887</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.911768114388991</v>
+        <v>1.226574850822544</v>
       </c>
       <c r="L14">
-        <v>0.3469002206319232</v>
+        <v>0.2932060596716042</v>
       </c>
       <c r="M14">
-        <v>0.2999984611480926</v>
+        <v>0.281475962660636</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.071105702934602</v>
+        <v>1.010349709029128</v>
       </c>
       <c r="C15">
-        <v>0.8499025371507116</v>
+        <v>0.3110624412537675</v>
       </c>
       <c r="D15">
-        <v>0.3103842766011979</v>
+        <v>0.1073966384260672</v>
       </c>
       <c r="E15">
-        <v>0.008246411209996807</v>
+        <v>0.02882914883435528</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008213808084653884</v>
+        <v>0.002649654102137734</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.39585520483297</v>
+        <v>7.587858136587158</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.887564840387029</v>
+        <v>1.223013162225783</v>
       </c>
       <c r="L15">
-        <v>0.343429499054082</v>
+        <v>0.2924642181374537</v>
       </c>
       <c r="M15">
-        <v>0.2964985443885411</v>
+        <v>0.2810990668578341</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9901711750906088</v>
+        <v>1.007400933343092</v>
       </c>
       <c r="C16">
-        <v>0.7908343247996754</v>
+        <v>0.2958395878848705</v>
       </c>
       <c r="D16">
-        <v>0.2880266236826117</v>
+        <v>0.1020605186368471</v>
       </c>
       <c r="E16">
-        <v>0.008294952104706543</v>
+        <v>0.02891204485156751</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.00082935449539308</v>
+        <v>0.002653380590177565</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.45829798172568</v>
+        <v>7.333227921072364</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.751577959358627</v>
+        <v>1.202943042132915</v>
       </c>
       <c r="L16">
-        <v>0.3238080041956977</v>
+        <v>0.2882461800250837</v>
       </c>
       <c r="M16">
-        <v>0.2768631397280927</v>
+        <v>0.2790100980108576</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9423575985230741</v>
+        <v>1.005917153876055</v>
       </c>
       <c r="C17">
-        <v>0.7551902900219432</v>
+        <v>0.2865210899685167</v>
       </c>
       <c r="D17">
-        <v>0.2745582941109603</v>
+        <v>0.09880061665732853</v>
       </c>
       <c r="E17">
-        <v>0.008327011212927116</v>
+        <v>0.02896440571017844</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.000834242879808699</v>
+        <v>0.002655713762590905</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>13.89210693184327</v>
+        <v>7.17693608544775</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.670387427513162</v>
+        <v>1.190933245754735</v>
       </c>
       <c r="L17">
-        <v>0.3119922614558845</v>
+        <v>0.2856880621841924</v>
       </c>
       <c r="M17">
-        <v>0.2651657857010186</v>
+        <v>0.2777916693089324</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9154760197713188</v>
+        <v>1.005182815510864</v>
       </c>
       <c r="C18">
-        <v>0.7348866419361002</v>
+        <v>0.2811686271248277</v>
       </c>
       <c r="D18">
-        <v>0.2668944059441429</v>
+        <v>0.0969305544965664</v>
       </c>
       <c r="E18">
-        <v>0.008346256351295822</v>
+        <v>0.02899507722708128</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008370553553988901</v>
+        <v>0.002657073102254915</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.569430302537</v>
+        <v>7.087006952091656</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.624439880371796</v>
+        <v>1.184136235228806</v>
       </c>
       <c r="L18">
-        <v>0.3052709773210864</v>
+        <v>0.28422751725914</v>
       </c>
       <c r="M18">
-        <v>0.2585555615797013</v>
+        <v>0.277113985991182</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9064758360214853</v>
+        <v>1.004954596168858</v>
       </c>
       <c r="C19">
-        <v>0.7280443857327725</v>
+        <v>0.2793576138498111</v>
       </c>
       <c r="D19">
-        <v>0.2643130263324736</v>
+        <v>0.09629822730180138</v>
       </c>
       <c r="E19">
-        <v>0.00835290794162824</v>
+        <v>0.02900555749856049</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008380079271579395</v>
+        <v>0.002657536338334018</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.46066147415718</v>
+        <v>7.056552319620408</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.609005641260808</v>
+        <v>1.181853852415884</v>
       </c>
       <c r="L19">
-        <v>0.3030075306725166</v>
+        <v>0.2837348569550642</v>
       </c>
       <c r="M19">
-        <v>0.2563367716729879</v>
+        <v>0.2768885001883703</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9473821212213807</v>
+        <v>1.006062769790702</v>
       </c>
       <c r="C20">
-        <v>0.7589637529752054</v>
+        <v>0.2875123022006676</v>
       </c>
       <c r="D20">
-        <v>0.2759832815743835</v>
+        <v>0.09914712534481396</v>
       </c>
       <c r="E20">
-        <v>0.008323514400355669</v>
+        <v>0.02895877440030858</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008337224624428579</v>
+        <v>0.002655463596763371</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>13.95206357037219</v>
+        <v>7.1935770869338</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.678951066506755</v>
+        <v>1.192200240443213</v>
       </c>
       <c r="L20">
-        <v>0.3132421826943101</v>
+        <v>0.2859592580572468</v>
       </c>
       <c r="M20">
-        <v>0.2663985786440648</v>
+        <v>0.2779189784876124</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.092617961117782</v>
+        <v>1.011211907225771</v>
       </c>
       <c r="C21">
-        <v>0.8653532054171933</v>
+        <v>0.3149990550083999</v>
       </c>
       <c r="D21">
-        <v>0.3162401663767724</v>
+        <v>0.1087785871294784</v>
       </c>
       <c r="E21">
-        <v>0.00823461314992413</v>
+        <v>0.02880821161040803</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.00081931943651111</v>
+        <v>0.002648706511122327</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>15.64096103732402</v>
+        <v>7.653575147861488</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.923425010684298</v>
+        <v>1.228288817698086</v>
       </c>
       <c r="L21">
-        <v>0.3485695240250521</v>
+        <v>0.2935623803977592</v>
       </c>
       <c r="M21">
-        <v>0.3016846269591369</v>
+        <v>0.2816579502045542</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.194316009517536</v>
+        <v>1.01564661558416</v>
       </c>
       <c r="C22">
-        <v>0.9370951425802332</v>
+        <v>0.3330312336319707</v>
       </c>
       <c r="D22">
-        <v>0.3434716714838117</v>
+        <v>0.1151187168317875</v>
       </c>
       <c r="E22">
-        <v>0.008184439694892021</v>
+        <v>0.02871472683937182</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0008098685227071503</v>
+        <v>0.002644443808189471</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>16.77841252827653</v>
+        <v>7.95397365325033</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.091466346884687</v>
+        <v>1.252871074402719</v>
       </c>
       <c r="L22">
-        <v>0.3724719615116641</v>
+        <v>0.2986284022595811</v>
       </c>
       <c r="M22">
-        <v>0.3260264473781547</v>
+        <v>0.2843087806097842</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.139349620843888</v>
+        <v>1.0131814335858</v>
       </c>
       <c r="C23">
-        <v>0.8985788370275145</v>
+        <v>0.3234007480951391</v>
       </c>
       <c r="D23">
-        <v>0.3288435102934955</v>
+        <v>0.111730648461787</v>
       </c>
       <c r="E23">
-        <v>0.00821045070314369</v>
+        <v>0.02876417273881793</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008149185089243161</v>
+        <v>0.002646704908679577</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.16787265934187</v>
+        <v>7.79366367150601</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.000938591383658</v>
+        <v>1.239659387048647</v>
       </c>
       <c r="L23">
-        <v>0.359632398650632</v>
+        <v>0.2959156701090961</v>
       </c>
       <c r="M23">
-        <v>0.3129051549155974</v>
+        <v>0.2828749611392354</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9451086566527067</v>
+        <v>1.005996567190891</v>
       </c>
       <c r="C24">
-        <v>0.7572571876384586</v>
+        <v>0.2870641600279953</v>
       </c>
       <c r="D24">
-        <v>0.2753387998624959</v>
+        <v>0.09899045601473233</v>
       </c>
       <c r="E24">
-        <v>0.008325092781680588</v>
+        <v>0.02896131854435469</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008339577363473812</v>
+        <v>0.002655576640719914</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>13.92494842036598</v>
+        <v>7.186053924126782</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.675077187955338</v>
+        <v>1.1916270971671</v>
       </c>
       <c r="L24">
-        <v>0.312676871373526</v>
+        <v>0.2858366187916346</v>
       </c>
       <c r="M24">
-        <v>0.2658408779665038</v>
+        <v>0.2778613509814321</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.75879742121748</v>
+        <v>1.002794558178664</v>
       </c>
       <c r="C25">
-        <v>0.612208622630817</v>
+        <v>0.2481461182508724</v>
       </c>
       <c r="D25">
-        <v>0.2207166909753795</v>
+        <v>0.08543641570115312</v>
       </c>
       <c r="E25">
-        <v>0.008479312123228222</v>
+        <v>0.02919520412556487</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008545429901443136</v>
+        <v>0.002665810685307974</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.61679331368043</v>
+        <v>6.529299756977366</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.351698449053458</v>
+        <v>1.144042926915091</v>
       </c>
       <c r="L25">
-        <v>0.2648299929795002</v>
+        <v>0.2753778970628389</v>
       </c>
       <c r="M25">
-        <v>0.2194888450547197</v>
+        <v>0.2733367269515625</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_29/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.004298570496076</v>
+        <v>0.6362785060495639</v>
       </c>
       <c r="C2">
-        <v>0.219705803957936</v>
+        <v>0.5098399555529625</v>
       </c>
       <c r="D2">
-        <v>0.07560893632798127</v>
+        <v>0.1823660311564765</v>
       </c>
       <c r="E2">
-        <v>0.02938583904253911</v>
+        <v>0.008616255063430334</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002673925070024397</v>
+        <v>0.0008699350783511851</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>6.044101232948748</v>
+        <v>9.982337590335135</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.112576345822077</v>
+        <v>1.131115526230616</v>
       </c>
       <c r="L2">
-        <v>0.268027249794244</v>
+        <v>0.2313726930349702</v>
       </c>
       <c r="M2">
-        <v>0.2707570903883685</v>
+        <v>0.1881750902003958</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.007702868809133</v>
+        <v>0.56028332831184</v>
       </c>
       <c r="C3">
-        <v>0.2005545605821055</v>
+        <v>0.4424491625376845</v>
       </c>
       <c r="D3">
-        <v>0.06903916425186196</v>
+        <v>0.157220666432238</v>
       </c>
       <c r="E3">
-        <v>0.02952661281072405</v>
+        <v>0.008722604908263987</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002679789338005902</v>
+        <v>0.0008805917405262891</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5.714031392083626</v>
+        <v>8.902819380325639</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.093446645601432</v>
+        <v>0.9898909689275968</v>
       </c>
       <c r="L3">
-        <v>0.2632616166814188</v>
+        <v>0.2095448972232816</v>
       </c>
       <c r="M3">
-        <v>0.2694741372510947</v>
+        <v>0.1683162765079338</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.01096208687477</v>
+        <v>0.5165104926890933</v>
       </c>
       <c r="C4">
-        <v>0.1888529921253337</v>
+        <v>0.4018329530995004</v>
       </c>
       <c r="D4">
-        <v>0.0650484898235959</v>
+        <v>0.1421089613928643</v>
       </c>
       <c r="E4">
-        <v>0.02961878800619672</v>
+        <v>0.00879431668010966</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002683571347395843</v>
+        <v>0.0008872681455326524</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>5.51068234846889</v>
+        <v>8.250415658172244</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.082774347797141</v>
+        <v>0.9065183461766821</v>
       </c>
       <c r="L4">
-        <v>0.2604413552815217</v>
+        <v>0.1964875450857235</v>
       </c>
       <c r="M4">
-        <v>0.2689148003331674</v>
+        <v>0.156685934753682</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.012583182297988</v>
+        <v>0.4993224480235199</v>
       </c>
       <c r="C5">
-        <v>0.184098545961632</v>
+        <v>0.3854444802449848</v>
       </c>
       <c r="D5">
-        <v>0.06343294824789325</v>
+        <v>0.1360214313523613</v>
       </c>
       <c r="E5">
-        <v>0.02965779748381725</v>
+        <v>0.00882511899092997</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002685158317402206</v>
+        <v>0.0008900252383510064</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>5.427634953416145</v>
+        <v>7.986719234033046</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.078694008875061</v>
+        <v>0.8732861099698539</v>
       </c>
       <c r="L5">
-        <v>0.259318629671327</v>
+        <v>0.1912437412979884</v>
       </c>
       <c r="M5">
-        <v>0.2687441646320288</v>
+        <v>0.152073683279518</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.012870027614667</v>
+        <v>0.4965055406865702</v>
       </c>
       <c r="C6">
-        <v>0.1833099104393341</v>
+        <v>0.3827322447219785</v>
       </c>
       <c r="D6">
-        <v>0.06316532956887499</v>
+        <v>0.1350145439307937</v>
       </c>
       <c r="E6">
-        <v>0.02966436251408072</v>
+        <v>0.008830328195380654</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002685424601800401</v>
+        <v>0.0008904853306393947</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>5.413833809164572</v>
+        <v>7.94305075665622</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.078032666230996</v>
+        <v>0.8678101357840831</v>
       </c>
       <c r="L6">
-        <v>0.2591338038970505</v>
+        <v>0.1903774101233111</v>
       </c>
       <c r="M6">
-        <v>0.2687192875469222</v>
+        <v>0.1513151127436139</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.010982764783165</v>
+        <v>0.5162761533445064</v>
       </c>
       <c r="C7">
-        <v>0.1887888156649069</v>
+        <v>0.4016113084240089</v>
       </c>
       <c r="D7">
-        <v>0.06502665899917304</v>
+        <v>0.1420265916538881</v>
       </c>
       <c r="E7">
-        <v>0.0296193082357416</v>
+        <v>0.008794725737008569</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002683592564151541</v>
+        <v>0.0008873051774068128</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>5.509563086721386</v>
+        <v>8.246851169560301</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.082718232521842</v>
+        <v>0.9060672781234587</v>
       </c>
       <c r="L7">
-        <v>0.2604261063768618</v>
+        <v>0.1964165248327774</v>
       </c>
       <c r="M7">
-        <v>0.2689122672589015</v>
+        <v>0.1566232351967969</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.005229136023132</v>
+        <v>0.609427108468708</v>
       </c>
       <c r="C8">
-        <v>0.2130903060053981</v>
+        <v>0.4864272750857594</v>
       </c>
       <c r="D8">
-        <v>0.07333460899845079</v>
+        <v>0.1736204323641743</v>
       </c>
       <c r="E8">
-        <v>0.0294331890493173</v>
+        <v>0.0086515717799448</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002675909540963902</v>
+        <v>0.0008735837029843983</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5.930429869587641</v>
+        <v>9.607665570157053</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.105756891236382</v>
+        <v>1.081666407023363</v>
       </c>
       <c r="L8">
-        <v>0.2663620472332013</v>
+        <v>0.223768789535157</v>
       </c>
       <c r="M8">
-        <v>0.2702672395142685</v>
+        <v>0.1812017727363191</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.003270041043294</v>
+        <v>0.8189641133405132</v>
       </c>
       <c r="C9">
-        <v>0.2612208456589542</v>
+        <v>0.6602649508766945</v>
       </c>
       <c r="D9">
-        <v>0.08997783168203455</v>
+        <v>0.238778754804315</v>
       </c>
       <c r="E9">
-        <v>0.02911356822302785</v>
+        <v>0.008423565194837668</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002662273881923447</v>
+        <v>0.0008475838906884681</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>6.750751370329482</v>
+        <v>12.38236121473577</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.159513009831841</v>
+        <v>1.45751073699617</v>
       </c>
       <c r="L9">
-        <v>0.278846222161377</v>
+        <v>0.2806336912462086</v>
       </c>
       <c r="M9">
-        <v>0.2747435567707797</v>
+        <v>0.234606754952555</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.007586410388342</v>
+        <v>0.9957148994103875</v>
       </c>
       <c r="C10">
-        <v>0.2969038916173758</v>
+        <v>0.7949297669796351</v>
       </c>
       <c r="D10">
-        <v>0.102433171083419</v>
+        <v>0.289575241041419</v>
       </c>
       <c r="E10">
-        <v>0.02890614522330259</v>
+        <v>0.0082914053718674</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002653116707248984</v>
+        <v>0.0008287966656790576</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>7.351057501380865</v>
+        <v>14.52333053418718</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.204328479752121</v>
+        <v>1.760949036662623</v>
       </c>
       <c r="L10">
-        <v>0.2885395468487673</v>
+        <v>0.3251668628222717</v>
       </c>
       <c r="M10">
-        <v>0.2791522669366202</v>
+        <v>0.2782145697610829</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.01081605970839</v>
+        <v>1.08283335774351</v>
       </c>
       <c r="C11">
-        <v>0.3132140371980086</v>
+        <v>0.8583381097467964</v>
       </c>
       <c r="D11">
-        <v>0.1081518564441382</v>
+        <v>0.3135810137140993</v>
       </c>
       <c r="E11">
-        <v>0.02881768091288617</v>
+        <v>0.008239924930240061</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002649135399668317</v>
+        <v>0.0008202541680049968</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>7.623782787143057</v>
+        <v>15.52968168673272</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.225892425857438</v>
+        <v>1.90712865891544</v>
       </c>
       <c r="L11">
-        <v>0.2930640683485279</v>
+        <v>0.3462354244121144</v>
       </c>
       <c r="M11">
-        <v>0.2814036139702836</v>
+        <v>0.2993274587885679</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.012222427600221</v>
+        <v>1.11696753569197</v>
       </c>
       <c r="C12">
-        <v>0.31940196416096</v>
+        <v>0.8827221604161934</v>
       </c>
       <c r="D12">
-        <v>0.1103251733168946</v>
+        <v>0.3228268590615215</v>
       </c>
       <c r="E12">
-        <v>0.02878502521058401</v>
+        <v>0.008221778835521554</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002647654103313585</v>
+        <v>0.0008170134925782029</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>7.727016495331668</v>
+        <v>15.9164366845024</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.234229023578933</v>
+        <v>1.963878328665345</v>
       </c>
       <c r="L12">
-        <v>0.2947940304423895</v>
+        <v>0.3543511436021447</v>
       </c>
       <c r="M12">
-        <v>0.2822916818910457</v>
+        <v>0.3075387263669711</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.011911364546677</v>
+        <v>1.109562034493564</v>
       </c>
       <c r="C13">
-        <v>0.3180687589358797</v>
+        <v>0.8774529104165936</v>
       </c>
       <c r="D13">
-        <v>0.1098567616565873</v>
+        <v>0.3208282239515796</v>
       </c>
       <c r="E13">
-        <v>0.02879202072951914</v>
+        <v>0.008225624985740643</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002647971958321712</v>
+        <v>0.0008177118021943013</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>7.704784952756427</v>
+        <v>15.8328718783045</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.232425967048528</v>
+        <v>1.951590252508481</v>
       </c>
       <c r="L13">
-        <v>0.2944207113219335</v>
+        <v>0.3525967897324449</v>
       </c>
       <c r="M13">
-        <v>0.2820988372734732</v>
+        <v>0.3057600776828124</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.010928079844746</v>
+        <v>1.085617522056253</v>
       </c>
       <c r="C14">
-        <v>0.3137228860098844</v>
+        <v>0.860336326950943</v>
       </c>
       <c r="D14">
-        <v>0.1083304995614327</v>
+        <v>0.3143383946100613</v>
       </c>
       <c r="E14">
-        <v>0.02881497741823524</v>
+        <v>0.008238404317275849</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002649013005413355</v>
+        <v>0.0008199877126652411</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>7.632276659636887</v>
+        <v>15.56138018226812</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.226574850822544</v>
+        <v>1.911768114388877</v>
       </c>
       <c r="L14">
-        <v>0.2932060596716042</v>
+        <v>0.3469002206315253</v>
       </c>
       <c r="M14">
-        <v>0.281475962660636</v>
+        <v>0.2999984611481423</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.010349709029128</v>
+        <v>1.071105702934602</v>
       </c>
       <c r="C15">
-        <v>0.3110624412537675</v>
+        <v>0.8499025371502569</v>
       </c>
       <c r="D15">
-        <v>0.1073966384260672</v>
+        <v>0.3103842766022353</v>
       </c>
       <c r="E15">
-        <v>0.02882914883435528</v>
+        <v>0.008246411210047433</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002649654102137734</v>
+        <v>0.0008213808085290344</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>7.587858136587158</v>
+        <v>15.39585520483308</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.223013162225783</v>
+        <v>1.887564840387228</v>
       </c>
       <c r="L15">
-        <v>0.2924642181374537</v>
+        <v>0.343429499054281</v>
       </c>
       <c r="M15">
-        <v>0.2810990668578341</v>
+        <v>0.296498544388605</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.007400933343092</v>
+        <v>0.9901711750902962</v>
       </c>
       <c r="C16">
-        <v>0.2958395878848705</v>
+        <v>0.7908343247995901</v>
       </c>
       <c r="D16">
-        <v>0.1020605186368471</v>
+        <v>0.288026623682029</v>
       </c>
       <c r="E16">
-        <v>0.02891204485156751</v>
+        <v>0.008294952104777598</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002653380590177565</v>
+        <v>0.0008293544954257168</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>7.333227921072364</v>
+        <v>14.45829798172542</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.202943042132915</v>
+        <v>1.7515779593584</v>
       </c>
       <c r="L16">
-        <v>0.2882461800250837</v>
+        <v>0.3238080041956124</v>
       </c>
       <c r="M16">
-        <v>0.2790100980108576</v>
+        <v>0.2768631397281212</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.005917153876055</v>
+        <v>0.9423575985233583</v>
       </c>
       <c r="C17">
-        <v>0.2865210899685167</v>
+        <v>0.7551902900215737</v>
       </c>
       <c r="D17">
-        <v>0.09880061665732853</v>
+        <v>0.2745582941111735</v>
       </c>
       <c r="E17">
-        <v>0.02896440571017844</v>
+        <v>0.008327011213008273</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002655713762590905</v>
+        <v>0.0008342428800684806</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>7.17693608544775</v>
+        <v>13.89210693184299</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.190933245754735</v>
+        <v>1.670387427512651</v>
       </c>
       <c r="L17">
-        <v>0.2856880621841924</v>
+        <v>0.3119922614556714</v>
       </c>
       <c r="M17">
-        <v>0.2777916693089324</v>
+        <v>0.2651657857011003</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.005182815510864</v>
+        <v>0.9154760197713756</v>
       </c>
       <c r="C18">
-        <v>0.2811686271248277</v>
+        <v>0.7348866419353328</v>
       </c>
       <c r="D18">
-        <v>0.0969305544965664</v>
+        <v>0.2668944059451093</v>
       </c>
       <c r="E18">
-        <v>0.02899507722708128</v>
+        <v>0.008346256351145886</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002657073102254915</v>
+        <v>0.0008370553554308645</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>7.087006952091656</v>
+        <v>13.56943030253657</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.184136235228806</v>
+        <v>1.62443988037225</v>
       </c>
       <c r="L18">
-        <v>0.28422751725914</v>
+        <v>0.3052709773212285</v>
       </c>
       <c r="M18">
-        <v>0.277113985991182</v>
+        <v>0.2585555615797048</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.004954596168858</v>
+        <v>0.9064758360217979</v>
       </c>
       <c r="C19">
-        <v>0.2793576138498111</v>
+        <v>0.7280443857325736</v>
       </c>
       <c r="D19">
-        <v>0.09629822730180138</v>
+        <v>0.2643130263324167</v>
       </c>
       <c r="E19">
-        <v>0.02900555749856049</v>
+        <v>0.008352907941583387</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002657536338334018</v>
+        <v>0.0008380079272753032</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>7.056552319620408</v>
+        <v>13.46066147415664</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.181853852415884</v>
+        <v>1.609005641260808</v>
       </c>
       <c r="L19">
-        <v>0.2837348569550642</v>
+        <v>0.303007530672275</v>
       </c>
       <c r="M19">
-        <v>0.2768885001883703</v>
+        <v>0.2563367716730234</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.006062769790702</v>
+        <v>0.9473821212215228</v>
       </c>
       <c r="C20">
-        <v>0.2875123022006676</v>
+        <v>0.7589637529745801</v>
       </c>
       <c r="D20">
-        <v>0.09914712534481396</v>
+        <v>0.2759832815740424</v>
       </c>
       <c r="E20">
-        <v>0.02895877440030858</v>
+        <v>0.00832351440027318</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002655463596763371</v>
+        <v>0.0008337224625644175</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>7.1935770869338</v>
+        <v>13.95206357037213</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.192200240443213</v>
+        <v>1.678951066506812</v>
       </c>
       <c r="L20">
-        <v>0.2859592580572468</v>
+        <v>0.3132421826944096</v>
       </c>
       <c r="M20">
-        <v>0.2779189784876124</v>
+        <v>0.2663985786440861</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.011211907225771</v>
+        <v>1.092617961117753</v>
       </c>
       <c r="C21">
-        <v>0.3149990550083999</v>
+        <v>0.8653532054171365</v>
       </c>
       <c r="D21">
-        <v>0.1087785871294784</v>
+        <v>0.316240166377213</v>
       </c>
       <c r="E21">
-        <v>0.02880821161040803</v>
+        <v>0.008234613149833425</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002648706511122327</v>
+        <v>0.0008193194366856343</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>7.653575147861488</v>
+        <v>15.64096103732413</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.228288817698086</v>
+        <v>1.92342501068407</v>
       </c>
       <c r="L21">
-        <v>0.2935623803977592</v>
+        <v>0.3485695240246258</v>
       </c>
       <c r="M21">
-        <v>0.2816579502045542</v>
+        <v>0.3016846269590303</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.01564661558416</v>
+        <v>1.194316009517081</v>
       </c>
       <c r="C22">
-        <v>0.3330312336319707</v>
+        <v>0.9370951425817964</v>
       </c>
       <c r="D22">
-        <v>0.1151187168317875</v>
+        <v>0.3434716714844086</v>
       </c>
       <c r="E22">
-        <v>0.02871472683937182</v>
+        <v>0.008184439695094747</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002644443808189471</v>
+        <v>0.00080986852273357</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>7.95397365325033</v>
+        <v>16.77841252827699</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.252871074402719</v>
+        <v>2.091466346884971</v>
       </c>
       <c r="L22">
-        <v>0.2986284022595811</v>
+        <v>0.3724719615115362</v>
       </c>
       <c r="M22">
-        <v>0.2843087806097842</v>
+        <v>0.3260264473782399</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.0131814335858</v>
+        <v>1.139349620844115</v>
       </c>
       <c r="C23">
-        <v>0.3234007480951391</v>
+        <v>0.8985788370273156</v>
       </c>
       <c r="D23">
-        <v>0.111730648461787</v>
+        <v>0.3288435102926712</v>
       </c>
       <c r="E23">
-        <v>0.02876417273881793</v>
+        <v>0.008210450703236172</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002646704908679577</v>
+        <v>0.0008149185090203976</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>7.79366367150601</v>
+        <v>16.16787265934204</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.239659387048647</v>
+        <v>2.000938591382948</v>
       </c>
       <c r="L23">
-        <v>0.2959156701090961</v>
+        <v>0.3596323986507457</v>
       </c>
       <c r="M23">
-        <v>0.2828749611392354</v>
+        <v>0.3129051549155406</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.005996567190891</v>
+        <v>0.9451086566533036</v>
       </c>
       <c r="C24">
-        <v>0.2870641600279953</v>
+        <v>0.7572571876391692</v>
       </c>
       <c r="D24">
-        <v>0.09899045601473233</v>
+        <v>0.2753387998623538</v>
       </c>
       <c r="E24">
-        <v>0.02896131854435469</v>
+        <v>0.008325092781710897</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002655576640719914</v>
+        <v>0.0008339577363601408</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>7.186053924126782</v>
+        <v>13.92494842036598</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.1916270971671</v>
+        <v>1.675077187955537</v>
       </c>
       <c r="L24">
-        <v>0.2858366187916346</v>
+        <v>0.3126768713729007</v>
       </c>
       <c r="M24">
-        <v>0.2778613509814321</v>
+        <v>0.2658408779664896</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.002794558178664</v>
+        <v>0.7587974212171389</v>
       </c>
       <c r="C25">
-        <v>0.2481461182508724</v>
+        <v>0.612208622630277</v>
       </c>
       <c r="D25">
-        <v>0.08543641570115312</v>
+        <v>0.2207166909761469</v>
       </c>
       <c r="E25">
-        <v>0.02919520412556487</v>
+        <v>0.008479312123384319</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002665810685307974</v>
+        <v>0.0008545429901461246</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>6.529299756977366</v>
+        <v>11.61679331368049</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.144042926915091</v>
+        <v>1.351698449053487</v>
       </c>
       <c r="L25">
-        <v>0.2753778970628389</v>
+        <v>0.2648299929795144</v>
       </c>
       <c r="M25">
-        <v>0.2733367269515625</v>
+        <v>0.2194888450547232</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_29/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6362785060495639</v>
+        <v>2.012413329816695</v>
       </c>
       <c r="C2">
-        <v>0.5098399555529625</v>
+        <v>0.4782097380104346</v>
       </c>
       <c r="D2">
-        <v>0.1823660311564765</v>
+        <v>0.1995784388549708</v>
       </c>
       <c r="E2">
-        <v>0.008616255063430334</v>
+        <v>0.07165119577845003</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008699350783511851</v>
+        <v>0.4266817557659692</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0002669699582553697</v>
       </c>
       <c r="I2">
-        <v>9.982337590335135</v>
+        <v>0.0004887892254137327</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3272364393112781</v>
       </c>
       <c r="K2">
-        <v>1.131115526230616</v>
+        <v>0.3221109333942493</v>
       </c>
       <c r="L2">
-        <v>0.2313726930349702</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.1881750902003958</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.184846647043905</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.3627356947113825</v>
+      </c>
+      <c r="P2">
+        <v>0.8500936029569104</v>
+      </c>
+      <c r="Q2">
+        <v>1.53877087715</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.56028332831184</v>
+        <v>1.753026996287019</v>
       </c>
       <c r="C3">
-        <v>0.4424491625376845</v>
+        <v>0.4353201020096691</v>
       </c>
       <c r="D3">
-        <v>0.157220666432238</v>
+        <v>0.1733311589672439</v>
       </c>
       <c r="E3">
-        <v>0.008722604908263987</v>
+        <v>0.06969027544614015</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008805917405262891</v>
+        <v>0.3959365691044354</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0007855082459383711</v>
       </c>
       <c r="I3">
-        <v>8.902819380325639</v>
+        <v>0.0004456410774587027</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3169735445650872</v>
       </c>
       <c r="K3">
-        <v>0.9898909689275968</v>
+        <v>0.3190134540461962</v>
       </c>
       <c r="L3">
-        <v>0.2095448972232816</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1683162765079338</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1668877091963594</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.3170799769004446</v>
+      </c>
+      <c r="P3">
+        <v>0.8615052259358507</v>
+      </c>
+      <c r="Q3">
+        <v>1.451806135388836</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5165104926890933</v>
+        <v>1.593145745699132</v>
       </c>
       <c r="C4">
-        <v>0.4018329530995004</v>
+        <v>0.4090494298488494</v>
       </c>
       <c r="D4">
-        <v>0.1421089613928643</v>
+        <v>0.1573291994990598</v>
       </c>
       <c r="E4">
-        <v>0.00879431668010966</v>
+        <v>0.06845716673577318</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008872681455326524</v>
+        <v>0.3774380567493409</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00125786334548561</v>
       </c>
       <c r="I4">
-        <v>8.250415658172244</v>
+        <v>0.0005975293839464157</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3109435374939267</v>
       </c>
       <c r="K4">
-        <v>0.9065183461766821</v>
+        <v>0.3173483618961122</v>
       </c>
       <c r="L4">
-        <v>0.1964875450857235</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.156685934753682</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1558772732502973</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.2889859331552742</v>
+      </c>
+      <c r="P4">
+        <v>0.8691743671602623</v>
+      </c>
+      <c r="Q4">
+        <v>1.39977265825209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4993224480235199</v>
+        <v>1.526915615792916</v>
       </c>
       <c r="C5">
-        <v>0.3854444802449848</v>
+        <v>0.3988014149903307</v>
       </c>
       <c r="D5">
-        <v>0.1360214313523613</v>
+        <v>0.1508327804870078</v>
       </c>
       <c r="E5">
-        <v>0.00882511899092997</v>
+        <v>0.06792974655439998</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008900252383510064</v>
+        <v>0.3695845322806264</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00148872342219708</v>
       </c>
       <c r="I5">
-        <v>7.986719234033046</v>
+        <v>0.0007699001932448546</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3083449130094706</v>
       </c>
       <c r="K5">
-        <v>0.8732861099698539</v>
+        <v>0.3164178098450137</v>
       </c>
       <c r="L5">
-        <v>0.1912437412979884</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.152073683279518</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1514516612340202</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.2774339322018804</v>
+      </c>
+      <c r="P5">
+        <v>0.8727091577703803</v>
+      </c>
+      <c r="Q5">
+        <v>1.377601952907469</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4965055406865702</v>
+        <v>1.514784267066716</v>
       </c>
       <c r="C6">
-        <v>0.3827322447219785</v>
+        <v>0.3976477580533953</v>
       </c>
       <c r="D6">
-        <v>0.1350145439307937</v>
+        <v>0.1497544727211562</v>
       </c>
       <c r="E6">
-        <v>0.008830328195380654</v>
+        <v>0.06782076109739688</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008904853306393947</v>
+        <v>0.367791433058926</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.001531066004318293</v>
       </c>
       <c r="I6">
-        <v>7.94305075665622</v>
+        <v>0.0008912930911195716</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3076643935434191</v>
       </c>
       <c r="K6">
-        <v>0.8678101357840831</v>
+        <v>0.3158889201753574</v>
       </c>
       <c r="L6">
-        <v>0.1903774101233111</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1513151127436139</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1507884584730022</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.2754082988719944</v>
+      </c>
+      <c r="P6">
+        <v>0.8736103872258596</v>
+      </c>
+      <c r="Q6">
+        <v>1.372362088514166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5162761533445064</v>
+        <v>1.589172010284102</v>
       </c>
       <c r="C7">
-        <v>0.4016113084240089</v>
+        <v>0.4104116965823295</v>
       </c>
       <c r="D7">
-        <v>0.1420265916538881</v>
+        <v>0.1572385735047561</v>
       </c>
       <c r="E7">
-        <v>0.008794725737008569</v>
+        <v>0.06839341571977009</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008873051774068128</v>
+        <v>0.3759805691587843</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.001265233507817043</v>
       </c>
       <c r="I7">
-        <v>8.246851169560301</v>
+        <v>0.0008307107619485166</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3102176236355376</v>
       </c>
       <c r="K7">
-        <v>0.9060672781234587</v>
+        <v>0.3163043000840098</v>
       </c>
       <c r="L7">
-        <v>0.1964165248327774</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1566232351967969</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1560136503779646</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.2885386177602811</v>
+      </c>
+      <c r="P7">
+        <v>0.8700672425584699</v>
+      </c>
+      <c r="Q7">
+        <v>1.395161402121062</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.609427108468708</v>
+        <v>1.918981440727777</v>
       </c>
       <c r="C8">
-        <v>0.4864272750857594</v>
+        <v>0.4654166208466677</v>
       </c>
       <c r="D8">
-        <v>0.1736204323641743</v>
+        <v>0.1904981852127747</v>
       </c>
       <c r="E8">
-        <v>0.0086515717799448</v>
+        <v>0.07090800005385089</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008735837029843983</v>
+        <v>0.4142055652614687</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0004158402168296105</v>
       </c>
       <c r="I8">
-        <v>9.607665570157053</v>
+        <v>0.0007112669042115272</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.3227267815778561</v>
       </c>
       <c r="K8">
-        <v>1.081666407023363</v>
+        <v>0.3196319221380364</v>
       </c>
       <c r="L8">
-        <v>0.223768789535157</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.1812017727363191</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1789129602632471</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.3466155411259777</v>
+      </c>
+      <c r="P8">
+        <v>0.8550694942866599</v>
+      </c>
+      <c r="Q8">
+        <v>1.502778352721805</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8189641133405132</v>
+        <v>2.566647572180273</v>
       </c>
       <c r="C9">
-        <v>0.6602649508766945</v>
+        <v>0.5712908945536128</v>
       </c>
       <c r="D9">
-        <v>0.238778754804315</v>
+        <v>0.2567898775039055</v>
       </c>
       <c r="E9">
-        <v>0.008423565194837668</v>
+        <v>0.07572697221338975</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008475838906884681</v>
+        <v>0.4949095549716986</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>5.514146970986289E-05</v>
       </c>
       <c r="I9">
-        <v>12.38236121473577</v>
+        <v>0.001649522387764613</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.350780932225689</v>
       </c>
       <c r="K9">
-        <v>1.45751073699617</v>
+        <v>0.3299872795511867</v>
       </c>
       <c r="L9">
-        <v>0.2806336912462086</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.234606754952555</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2236532055469596</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.4606080998857891</v>
+      </c>
+      <c r="P9">
+        <v>0.8295050067156708</v>
+      </c>
+      <c r="Q9">
+        <v>1.733301886494502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9957148994103875</v>
+        <v>3.028252484343625</v>
       </c>
       <c r="C10">
-        <v>0.7949297669796351</v>
+        <v>0.6556223775552326</v>
       </c>
       <c r="D10">
-        <v>0.289575241041419</v>
+        <v>0.3063467537177047</v>
       </c>
       <c r="E10">
-        <v>0.0082914053718674</v>
+        <v>0.07833175986901297</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008287966656790576</v>
+        <v>0.549345607439065</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0008362901820899715</v>
       </c>
       <c r="I10">
-        <v>14.52333053418718</v>
+        <v>0.00348940376582263</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.369301032541685</v>
       </c>
       <c r="K10">
-        <v>1.760949036662623</v>
+        <v>0.3340598868697739</v>
       </c>
       <c r="L10">
-        <v>0.3251668628222717</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.2782145697610829</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2451420515313316</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.5354899739560253</v>
+      </c>
+      <c r="P10">
+        <v>0.8199732009004563</v>
+      </c>
+      <c r="Q10">
+        <v>1.887949161163561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.08283335774351</v>
+        <v>3.143069910190775</v>
       </c>
       <c r="C11">
-        <v>0.8583381097467964</v>
+        <v>0.7426834743554309</v>
       </c>
       <c r="D11">
-        <v>0.3135810137140993</v>
+        <v>0.3288796079405927</v>
       </c>
       <c r="E11">
-        <v>0.008239924930240061</v>
+        <v>0.07808648352583702</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008202541680049968</v>
+        <v>0.5153910137172488</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01937211496577973</v>
       </c>
       <c r="I11">
-        <v>15.52968168673272</v>
+        <v>0.004581089215156986</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.348219069693684</v>
       </c>
       <c r="K11">
-        <v>1.90712865891544</v>
+        <v>0.2977708780182802</v>
       </c>
       <c r="L11">
-        <v>0.3462354244121144</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.2993274587885679</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.165492233034584</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.4960160915295262</v>
+      </c>
+      <c r="P11">
+        <v>0.8685175255418187</v>
+      </c>
+      <c r="Q11">
+        <v>1.772027953273721</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.11696753569197</v>
+        <v>3.145964643095056</v>
       </c>
       <c r="C12">
-        <v>0.8827221604161934</v>
+        <v>0.7990639937766844</v>
       </c>
       <c r="D12">
-        <v>0.3228268590615215</v>
+        <v>0.3373532687343044</v>
       </c>
       <c r="E12">
-        <v>0.008221778835521554</v>
+        <v>0.08500860579901293</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008170134925782029</v>
+        <v>0.477802394216269</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05794361060964093</v>
       </c>
       <c r="I12">
-        <v>15.9164366845024</v>
+        <v>0.004692641083483551</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.327651631624704</v>
       </c>
       <c r="K12">
-        <v>1.963878328665345</v>
+        <v>0.2693228999290618</v>
       </c>
       <c r="L12">
-        <v>0.3543511436021447</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3075387263669711</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1093049468448228</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.4489413061674412</v>
+      </c>
+      <c r="P12">
+        <v>0.916748504369167</v>
+      </c>
+      <c r="Q12">
+        <v>1.64935670718117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.109562034493564</v>
+        <v>3.057939321240781</v>
       </c>
       <c r="C13">
-        <v>0.8774529104165936</v>
+        <v>0.8368685846012056</v>
       </c>
       <c r="D13">
-        <v>0.3208282239515796</v>
+        <v>0.3353332985638815</v>
       </c>
       <c r="E13">
-        <v>0.008225624985740643</v>
+        <v>0.097486844048424</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008177118021943013</v>
+        <v>0.4330513186792047</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1135176042416788</v>
       </c>
       <c r="I13">
-        <v>15.8328718783045</v>
+        <v>0.004360045290193071</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3051444985936627</v>
       </c>
       <c r="K13">
-        <v>1.951590252508481</v>
+        <v>0.2435822772818526</v>
       </c>
       <c r="L13">
-        <v>0.3525967897324449</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3057600776828124</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.06830039094186091</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.393169986772989</v>
+      </c>
+      <c r="P13">
+        <v>0.9677366651974069</v>
+      </c>
+      <c r="Q13">
+        <v>1.507349202229193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.085617522056253</v>
+        <v>2.954529720632365</v>
       </c>
       <c r="C14">
-        <v>0.860336326950943</v>
+        <v>0.8555497459928745</v>
       </c>
       <c r="D14">
-        <v>0.3143383946100613</v>
+        <v>0.3291667118535884</v>
       </c>
       <c r="E14">
-        <v>0.008238404317275849</v>
+        <v>0.1095930063181854</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008199877126652411</v>
+        <v>0.3984892376609963</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1627224342770575</v>
       </c>
       <c r="I14">
-        <v>15.56138018226812</v>
+        <v>0.004019953363459727</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2884825167521967</v>
       </c>
       <c r="K14">
-        <v>1.911768114388877</v>
+        <v>0.2268867552597769</v>
       </c>
       <c r="L14">
-        <v>0.3469002206315253</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.2999984611481423</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.04877725516066356</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.3507276722385981</v>
+      </c>
+      <c r="P14">
+        <v>1.005389867626604</v>
+      </c>
+      <c r="Q14">
+        <v>1.399142165187129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.071105702934602</v>
+        <v>2.909063877089352</v>
       </c>
       <c r="C15">
-        <v>0.8499025371502569</v>
+        <v>0.8563964459436022</v>
       </c>
       <c r="D15">
-        <v>0.3103842766022353</v>
+        <v>0.3254309611127724</v>
       </c>
       <c r="E15">
-        <v>0.008246411210047433</v>
+        <v>0.1127233364549802</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008213808085290344</v>
+        <v>0.3880958839078943</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1751692942338678</v>
       </c>
       <c r="I15">
-        <v>15.39585520483308</v>
+        <v>0.003953528418221275</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2837977262277036</v>
       </c>
       <c r="K15">
-        <v>1.887564840387228</v>
+        <v>0.2229543328758439</v>
       </c>
       <c r="L15">
-        <v>0.343429499054281</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.296498544388605</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.04523323535792656</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.338343332325735</v>
+      </c>
+      <c r="P15">
+        <v>1.014699669579883</v>
+      </c>
+      <c r="Q15">
+        <v>1.367266970671665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9901711750902962</v>
+        <v>2.72831444555402</v>
       </c>
       <c r="C16">
-        <v>0.7908343247995901</v>
+        <v>0.8117515368899433</v>
       </c>
       <c r="D16">
-        <v>0.288026623682029</v>
+        <v>0.30423500169276</v>
       </c>
       <c r="E16">
-        <v>0.008294952104777598</v>
+        <v>0.1085300842193924</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008293544954257168</v>
+        <v>0.3732876301239969</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1621221644653303</v>
       </c>
       <c r="I16">
-        <v>14.45829798172542</v>
+        <v>0.003285432502766916</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2800167756365823</v>
       </c>
       <c r="K16">
-        <v>1.7515779593584</v>
+        <v>0.2258896279990594</v>
       </c>
       <c r="L16">
-        <v>0.3238080041956124</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.2768631397281212</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.04548228477131744</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.3189154301847168</v>
+      </c>
+      <c r="P16">
+        <v>1.005351394350157</v>
+      </c>
+      <c r="Q16">
+        <v>1.327759261316544</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9423575985233583</v>
+        <v>2.644488289904814</v>
       </c>
       <c r="C17">
-        <v>0.7551902900215737</v>
+        <v>0.767730169980041</v>
       </c>
       <c r="D17">
-        <v>0.2745582941111735</v>
+        <v>0.291341048423007</v>
       </c>
       <c r="E17">
-        <v>0.008327011213008273</v>
+        <v>0.09831697389042304</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008342428800684806</v>
+        <v>0.380178711525744</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1241918582390014</v>
       </c>
       <c r="I17">
-        <v>13.89210693184299</v>
+        <v>0.002995144737165667</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.285952997525996</v>
       </c>
       <c r="K17">
-        <v>1.670387427512651</v>
+        <v>0.2368525750350763</v>
       </c>
       <c r="L17">
-        <v>0.3119922614556714</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2651657857011003</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.05446755419169946</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.3261172897348814</v>
+      </c>
+      <c r="P17">
+        <v>0.9784170369649274</v>
+      </c>
+      <c r="Q17">
+        <v>1.354671660905723</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9154760197713756</v>
+        <v>2.636518852262668</v>
       </c>
       <c r="C18">
-        <v>0.7348866419353328</v>
+        <v>0.7188958435737334</v>
       </c>
       <c r="D18">
-        <v>0.2668944059451093</v>
+        <v>0.284020298995685</v>
       </c>
       <c r="E18">
-        <v>0.008346256351145886</v>
+        <v>0.08530055380601809</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008370553554308645</v>
+        <v>0.407853912028969</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07134085593224881</v>
       </c>
       <c r="I18">
-        <v>13.56943030253657</v>
+        <v>0.002682711227721235</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3015248642624329</v>
       </c>
       <c r="K18">
-        <v>1.62443988037225</v>
+        <v>0.2574190020774765</v>
       </c>
       <c r="L18">
-        <v>0.3052709773212285</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2585555615797048</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.0798456800114451</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.3583149670648211</v>
+      </c>
+      <c r="P18">
+        <v>0.9349333188452249</v>
+      </c>
+      <c r="Q18">
+        <v>1.445872993058032</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9064758360217979</v>
+        <v>2.683958041365088</v>
       </c>
       <c r="C19">
-        <v>0.7280443857325736</v>
+        <v>0.674908676483426</v>
       </c>
       <c r="D19">
-        <v>0.2643130263324167</v>
+        <v>0.2816537839495084</v>
       </c>
       <c r="E19">
-        <v>0.008352907941583387</v>
+        <v>0.07632226819414267</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008380079272753032</v>
+        <v>0.4489191581301384</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02619290558602927</v>
       </c>
       <c r="I19">
-        <v>13.46066147415664</v>
+        <v>0.002881552993997616</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3229236081400018</v>
       </c>
       <c r="K19">
-        <v>1.609005641260808</v>
+        <v>0.2841180253188185</v>
       </c>
       <c r="L19">
-        <v>0.303007530672275</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2563367716730234</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1286814106932894</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.4097173863545649</v>
+      </c>
+      <c r="P19">
+        <v>0.8880581190541648</v>
+      </c>
+      <c r="Q19">
+        <v>1.577710876496525</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9473821212215228</v>
+        <v>2.8968846786276</v>
       </c>
       <c r="C20">
-        <v>0.7589637529745801</v>
+        <v>0.638518315136821</v>
       </c>
       <c r="D20">
-        <v>0.2759832815740424</v>
+        <v>0.2932487237877694</v>
       </c>
       <c r="E20">
-        <v>0.00832351440027318</v>
+        <v>0.07745771259392464</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008337224625644175</v>
+        <v>0.5303658389815098</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0005420143435674873</v>
       </c>
       <c r="I20">
-        <v>13.95206357037213</v>
+        <v>0.003641662544387358</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3620447569516898</v>
       </c>
       <c r="K20">
-        <v>1.678951066506812</v>
+        <v>0.3295524046569689</v>
       </c>
       <c r="L20">
-        <v>0.3132421826944096</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2663985786440861</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2396157661568026</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.514556249688745</v>
+      </c>
+      <c r="P20">
+        <v>0.8255387173654967</v>
+      </c>
+      <c r="Q20">
+        <v>1.832399624073929</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.092617961117753</v>
+        <v>3.268172437268731</v>
       </c>
       <c r="C21">
-        <v>0.8653532054171365</v>
+        <v>0.6948624311994251</v>
       </c>
       <c r="D21">
-        <v>0.316240166377213</v>
+        <v>0.3316676435492241</v>
       </c>
       <c r="E21">
-        <v>0.008234613149833425</v>
+        <v>0.0807316602499828</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008193194366856343</v>
+        <v>0.5842578949122554</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.001292492098411646</v>
       </c>
       <c r="I21">
-        <v>15.64096103732413</v>
+        <v>0.005341384736563981</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3824554935555398</v>
       </c>
       <c r="K21">
-        <v>1.92342501068407</v>
+        <v>0.3406624472796729</v>
       </c>
       <c r="L21">
-        <v>0.3485695240246258</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3016846269590303</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2741568708021589</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.5853986321935025</v>
+      </c>
+      <c r="P21">
+        <v>0.8109901034747296</v>
+      </c>
+      <c r="Q21">
+        <v>1.989731912112291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.194316009517081</v>
+        <v>3.509500124449744</v>
       </c>
       <c r="C22">
-        <v>0.9370951425817964</v>
+        <v>0.7324410824556367</v>
       </c>
       <c r="D22">
-        <v>0.3434716714844086</v>
+        <v>0.3570067764728719</v>
       </c>
       <c r="E22">
-        <v>0.008184439695094747</v>
+        <v>0.08251516673515757</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.00080986852273357</v>
+        <v>0.6184625681255653</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.002047194327119861</v>
       </c>
       <c r="I22">
-        <v>16.77841252827699</v>
+        <v>0.00639421764043302</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3953410427015456</v>
       </c>
       <c r="K22">
-        <v>2.091466346884971</v>
+        <v>0.3473069596794112</v>
       </c>
       <c r="L22">
-        <v>0.3724719615115362</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3260264473782399</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.2905689924376844</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.6277507885661038</v>
+      </c>
+      <c r="P22">
+        <v>0.803510094183423</v>
+      </c>
+      <c r="Q22">
+        <v>2.089443119164656</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.139349620844115</v>
+        <v>3.384501980113271</v>
       </c>
       <c r="C23">
-        <v>0.8985788370273156</v>
+        <v>0.7104973955335936</v>
       </c>
       <c r="D23">
-        <v>0.3288435102926712</v>
+        <v>0.3434658176249599</v>
       </c>
       <c r="E23">
-        <v>0.008210450703236172</v>
+        <v>0.08162359472749392</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008149185090203976</v>
+        <v>0.6017532025054066</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.001628939060490775</v>
       </c>
       <c r="I23">
-        <v>16.16787265934204</v>
+        <v>0.005537432717332536</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3892397921496382</v>
       </c>
       <c r="K23">
-        <v>2.000938591382948</v>
+        <v>0.3449276873132519</v>
       </c>
       <c r="L23">
-        <v>0.3596323986507457</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3129051549155406</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2815603490084868</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.6055041933292742</v>
+      </c>
+      <c r="P23">
+        <v>0.8062211529003207</v>
+      </c>
+      <c r="Q23">
+        <v>2.041128787669834</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9451086566533036</v>
+        <v>2.904616156175962</v>
       </c>
       <c r="C24">
-        <v>0.7572571876391692</v>
+        <v>0.6308034135680316</v>
       </c>
       <c r="D24">
-        <v>0.2753387998623538</v>
+        <v>0.292654779438692</v>
       </c>
       <c r="E24">
-        <v>0.008325092781710897</v>
+        <v>0.07814169075969302</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008339577363601408</v>
+        <v>0.53721462493084</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.000456781684602392</v>
       </c>
       <c r="I24">
-        <v>13.92494842036598</v>
+        <v>0.003197431330375089</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3656052300309085</v>
       </c>
       <c r="K24">
-        <v>1.675077187955537</v>
+        <v>0.3346908545608223</v>
       </c>
       <c r="L24">
-        <v>0.3126768713729007</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2658408779664896</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2479546108238395</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.5207037518428379</v>
+      </c>
+      <c r="P24">
+        <v>0.8199246576914661</v>
+      </c>
+      <c r="Q24">
+        <v>1.85436847664613</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7587974212171389</v>
+        <v>2.3862004551018</v>
       </c>
       <c r="C25">
-        <v>0.612208622630277</v>
+        <v>0.5453317319494602</v>
       </c>
       <c r="D25">
-        <v>0.2207166909761469</v>
+        <v>0.2387114310787695</v>
       </c>
       <c r="E25">
-        <v>0.008479312123384319</v>
+        <v>0.07434673333730668</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008545429901461246</v>
+        <v>0.4702218876601307</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.650761832256876E-10</v>
       </c>
       <c r="I25">
-        <v>11.61679331368049</v>
+        <v>0.001610548429063385</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3416814463152349</v>
       </c>
       <c r="K25">
-        <v>1.351698449053487</v>
+        <v>0.3251083915357462</v>
       </c>
       <c r="L25">
-        <v>0.2648299929795144</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2194888450547232</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2118849159560625</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.4292658215022058</v>
+      </c>
+      <c r="P25">
+        <v>0.8375254560165786</v>
+      </c>
+      <c r="Q25">
+        <v>1.661731911042864</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_29/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.012413329816695</v>
+        <v>1.953917742473919</v>
       </c>
       <c r="C2">
-        <v>0.4782097380104346</v>
+        <v>0.4916422348455001</v>
       </c>
       <c r="D2">
-        <v>0.1995784388549708</v>
+        <v>0.1995964097606304</v>
       </c>
       <c r="E2">
-        <v>0.07165119577845003</v>
+        <v>0.06908076914786365</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4266817557659692</v>
+        <v>0.3795573164888708</v>
       </c>
       <c r="H2">
-        <v>0.0002669699582553697</v>
+        <v>0.0002047546198353789</v>
       </c>
       <c r="I2">
-        <v>0.0004887892254137327</v>
+        <v>0.0006463382710997223</v>
       </c>
       <c r="J2">
-        <v>0.3272364393112781</v>
+        <v>0.3537442919968612</v>
       </c>
       <c r="K2">
-        <v>0.3221109333942493</v>
+        <v>0.2956850002137763</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1583908194869572</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.07344453403685236</v>
       </c>
       <c r="N2">
-        <v>0.184846647043905</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.3627356947113825</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8500936029569104</v>
+        <v>0.1917367493111115</v>
       </c>
       <c r="Q2">
-        <v>1.53877087715</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.3570779875563801</v>
+      </c>
+      <c r="R2">
+        <v>0.8592032620747005</v>
+      </c>
+      <c r="S2">
+        <v>1.448564153535813</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.753026996287019</v>
+        <v>1.70719317030975</v>
       </c>
       <c r="C3">
-        <v>0.4353201020096691</v>
+        <v>0.4419061614504187</v>
       </c>
       <c r="D3">
-        <v>0.1733311589672439</v>
+        <v>0.1733919492450582</v>
       </c>
       <c r="E3">
-        <v>0.06969027544614015</v>
+        <v>0.06742046030379689</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3959365691044354</v>
+        <v>0.353349852467602</v>
       </c>
       <c r="H3">
-        <v>0.0007855082459383711</v>
+        <v>0.0006342691326861605</v>
       </c>
       <c r="I3">
-        <v>0.0004456410774587027</v>
+        <v>0.0005045299215589161</v>
       </c>
       <c r="J3">
-        <v>0.3169735445650872</v>
+        <v>0.3433627856301911</v>
       </c>
       <c r="K3">
-        <v>0.3190134540461962</v>
+        <v>0.2949966151546164</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1624824825200264</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.07005695156728819</v>
       </c>
       <c r="N3">
-        <v>0.1668877091963594</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.3170799769004446</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8615052259358507</v>
+        <v>0.1733366230251647</v>
       </c>
       <c r="Q3">
-        <v>1.451806135388836</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3125876235390663</v>
+      </c>
+      <c r="R3">
+        <v>0.8641782924212578</v>
+      </c>
+      <c r="S3">
+        <v>1.374639437795594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.593145745699132</v>
+        <v>1.5548292061994</v>
       </c>
       <c r="C4">
-        <v>0.4090494298488494</v>
+        <v>0.4115555474541281</v>
       </c>
       <c r="D4">
-        <v>0.1573291994990598</v>
+        <v>0.1574096104574636</v>
       </c>
       <c r="E4">
-        <v>0.06845716673577318</v>
+        <v>0.06637430970194091</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3774380567493409</v>
+        <v>0.337615472700648</v>
       </c>
       <c r="H4">
-        <v>0.00125786334548561</v>
+        <v>0.001031067319586021</v>
       </c>
       <c r="I4">
-        <v>0.0005975293839464157</v>
+        <v>0.0005686517845209238</v>
       </c>
       <c r="J4">
-        <v>0.3109435374939267</v>
+        <v>0.3370621679993278</v>
       </c>
       <c r="K4">
-        <v>0.3173483618961122</v>
+        <v>0.294726770925827</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1650593720873736</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.06853429388553955</v>
       </c>
       <c r="N4">
-        <v>0.1558772732502973</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.2889859331552742</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8691743671602623</v>
+        <v>0.1620723500693444</v>
       </c>
       <c r="Q4">
-        <v>1.39977265825209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.2851802830446317</v>
+      </c>
+      <c r="R4">
+        <v>0.867972916598724</v>
+      </c>
+      <c r="S4">
+        <v>1.330202724547362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.526915615792916</v>
+        <v>1.491609282394592</v>
       </c>
       <c r="C5">
-        <v>0.3988014149903307</v>
+        <v>0.3997034829114767</v>
       </c>
       <c r="D5">
-        <v>0.1508327804870078</v>
+        <v>0.1509197559543338</v>
       </c>
       <c r="E5">
-        <v>0.06792974655439998</v>
+        <v>0.06592527084975974</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3695845322806264</v>
+        <v>0.330897560794682</v>
       </c>
       <c r="H5">
-        <v>0.00148872342219708</v>
+        <v>0.001225982775096113</v>
       </c>
       <c r="I5">
-        <v>0.0007699001932448546</v>
+        <v>0.0007113421140942933</v>
       </c>
       <c r="J5">
-        <v>0.3083449130094706</v>
+        <v>0.3343024350874444</v>
       </c>
       <c r="K5">
-        <v>0.3164178098450137</v>
+        <v>0.2943613505370273</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1659774068582109</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.06797991155254834</v>
       </c>
       <c r="N5">
-        <v>0.1514516612340202</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.2774339322018804</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8727091577703803</v>
+        <v>0.1575487170586527</v>
       </c>
       <c r="Q5">
-        <v>1.377601952907469</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.273901575107125</v>
+      </c>
+      <c r="R5">
+        <v>0.8699773378613642</v>
+      </c>
+      <c r="S5">
+        <v>1.311061521663689</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.514784267066716</v>
+        <v>1.479985503150857</v>
       </c>
       <c r="C6">
-        <v>0.3976477580533953</v>
+        <v>0.3983194242514401</v>
       </c>
       <c r="D6">
-        <v>0.1497544727211562</v>
+        <v>0.1498424937234972</v>
       </c>
       <c r="E6">
-        <v>0.06782076109739688</v>
+        <v>0.06583122646441075</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.367791433058926</v>
+        <v>0.3293112730864465</v>
       </c>
       <c r="H6">
-        <v>0.001531066004318293</v>
+        <v>0.001261854063935197</v>
       </c>
       <c r="I6">
-        <v>0.0008912930911195716</v>
+        <v>0.0008442696837729358</v>
       </c>
       <c r="J6">
-        <v>0.3076643935434191</v>
+        <v>0.3335889465872128</v>
       </c>
       <c r="K6">
-        <v>0.3158889201753574</v>
+        <v>0.2939461765221338</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.16595037680597</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.06780657786571709</v>
       </c>
       <c r="N6">
-        <v>0.1507884584730022</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.2754082988719944</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8736103872258596</v>
+        <v>0.1568707564499547</v>
       </c>
       <c r="Q6">
-        <v>1.372362088514166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.2719213538816945</v>
+      </c>
+      <c r="R6">
+        <v>0.8706612921349972</v>
+      </c>
+      <c r="S6">
+        <v>1.306359941598387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.589172010284102</v>
+        <v>1.549814491477463</v>
       </c>
       <c r="C7">
-        <v>0.4104116965823295</v>
+        <v>0.4124203644095275</v>
       </c>
       <c r="D7">
-        <v>0.1572385735047561</v>
+        <v>0.1573168020837841</v>
       </c>
       <c r="E7">
-        <v>0.06839341571977009</v>
+        <v>0.06631534950810902</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3759805691587843</v>
+        <v>0.3392628465924119</v>
       </c>
       <c r="H7">
-        <v>0.001265233507817043</v>
+        <v>0.001039482221245724</v>
       </c>
       <c r="I7">
-        <v>0.0008307107619485166</v>
+        <v>0.0008456672774030949</v>
       </c>
       <c r="J7">
-        <v>0.3102176236355376</v>
+        <v>0.3317247355288018</v>
       </c>
       <c r="K7">
-        <v>0.3163043000840098</v>
+        <v>0.2933950966603653</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1644161309766154</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.06817653360091924</v>
       </c>
       <c r="N7">
-        <v>0.1560136503779646</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.2885386177602811</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8700672425584699</v>
+        <v>0.1621768930219432</v>
       </c>
       <c r="Q7">
-        <v>1.395161402121062</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.28456990293936</v>
+      </c>
+      <c r="R7">
+        <v>0.8693209238915429</v>
+      </c>
+      <c r="S7">
+        <v>1.322939197455213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.918981440727777</v>
+        <v>1.861222039200157</v>
       </c>
       <c r="C8">
-        <v>0.4654166208466677</v>
+        <v>0.4746789725002429</v>
       </c>
       <c r="D8">
-        <v>0.1904981852127747</v>
+        <v>0.1905235654039501</v>
       </c>
       <c r="E8">
-        <v>0.07090800005385089</v>
+        <v>0.06844531000409138</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4142055652614687</v>
+        <v>0.3789075239861006</v>
       </c>
       <c r="H8">
-        <v>0.0004158402168296105</v>
+        <v>0.000330533600254701</v>
       </c>
       <c r="I8">
-        <v>0.0007112669042115272</v>
+        <v>0.0008940437184232763</v>
       </c>
       <c r="J8">
-        <v>0.3227267815778561</v>
+        <v>0.3341645110064064</v>
       </c>
       <c r="K8">
-        <v>0.3196319221380364</v>
+        <v>0.2929803826879365</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1586863260439237</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.07141605368280857</v>
       </c>
       <c r="N8">
-        <v>0.1789129602632471</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.3466155411259777</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8550694942866599</v>
+        <v>0.1855409452553189</v>
       </c>
       <c r="Q8">
-        <v>1.502778352721805</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.3408044086617679</v>
+      </c>
+      <c r="R8">
+        <v>0.8634197619737236</v>
+      </c>
+      <c r="S8">
+        <v>1.408008921022542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.566647572180273</v>
+        <v>2.474622084061991</v>
       </c>
       <c r="C9">
-        <v>0.5712908945536128</v>
+        <v>0.5976505981289506</v>
       </c>
       <c r="D9">
-        <v>0.2567898775039055</v>
+        <v>0.256655813812884</v>
       </c>
       <c r="E9">
-        <v>0.07572697221338975</v>
+        <v>0.07251982888032504</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4949095549716986</v>
+        <v>0.4510011595626651</v>
       </c>
       <c r="H9">
-        <v>5.514146970986289E-05</v>
+        <v>5.886083393980002E-05</v>
       </c>
       <c r="I9">
-        <v>0.001649522387764613</v>
+        <v>0.001851373444143434</v>
       </c>
       <c r="J9">
-        <v>0.350780932225689</v>
+        <v>0.3571474157004531</v>
       </c>
       <c r="K9">
-        <v>0.3299872795511867</v>
+        <v>0.2964646331630476</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.149368898985287</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.0831159967522197</v>
       </c>
       <c r="N9">
-        <v>0.2236532055469596</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.4606080998857891</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8295050067156708</v>
+        <v>0.2314381596099082</v>
       </c>
       <c r="Q9">
-        <v>1.733301886494502</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.4515448897065042</v>
+      </c>
+      <c r="R9">
+        <v>0.8547303965622604</v>
+      </c>
+      <c r="S9">
+        <v>1.600830331301097</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.028252484343625</v>
+        <v>2.904325767856733</v>
       </c>
       <c r="C10">
-        <v>0.6556223775552326</v>
+        <v>0.6914502233357496</v>
       </c>
       <c r="D10">
-        <v>0.3063467537177047</v>
+        <v>0.3060221191113328</v>
       </c>
       <c r="E10">
-        <v>0.07833175986901297</v>
+        <v>0.07476488318657171</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.549345607439065</v>
+        <v>0.5182034389499819</v>
       </c>
       <c r="H10">
-        <v>0.0008362901820899715</v>
+        <v>0.0007742380996385023</v>
       </c>
       <c r="I10">
-        <v>0.00348940376582263</v>
+        <v>0.003543726304633843</v>
       </c>
       <c r="J10">
-        <v>0.369301032541685</v>
+        <v>0.3460883547756168</v>
       </c>
       <c r="K10">
-        <v>0.3340598868697739</v>
+        <v>0.2938895929594203</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1407083967942846</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.09206237473519252</v>
       </c>
       <c r="N10">
-        <v>0.2451420515313316</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.5354899739560253</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8199732009004563</v>
+        <v>0.2533683539621592</v>
       </c>
       <c r="Q10">
-        <v>1.887949161163561</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.5230656512132228</v>
+      </c>
+      <c r="R10">
+        <v>0.8610410670931046</v>
+      </c>
+      <c r="S10">
+        <v>1.71188302370328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.143069910190775</v>
+        <v>3.005522222200739</v>
       </c>
       <c r="C11">
-        <v>0.7426834743554309</v>
+        <v>0.7737564030041426</v>
       </c>
       <c r="D11">
-        <v>0.3288796079405927</v>
+        <v>0.3284429145533068</v>
       </c>
       <c r="E11">
-        <v>0.07808648352583702</v>
+        <v>0.07557972829296578</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5153910137172488</v>
+        <v>0.5273269701504404</v>
       </c>
       <c r="H11">
-        <v>0.01937211496577973</v>
+        <v>0.01928104336259651</v>
       </c>
       <c r="I11">
-        <v>0.004581089215156986</v>
+        <v>0.004627743644554094</v>
       </c>
       <c r="J11">
-        <v>0.348219069693684</v>
+        <v>0.2803515951582298</v>
       </c>
       <c r="K11">
-        <v>0.2977708780182802</v>
+        <v>0.2585916718086168</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1252597325575255</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.08224443642935242</v>
       </c>
       <c r="N11">
-        <v>0.165492233034584</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.4960160915295262</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8685175255418187</v>
+        <v>0.1712829047769873</v>
       </c>
       <c r="Q11">
-        <v>1.772027953273721</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.4823029216230097</v>
+      </c>
+      <c r="R11">
+        <v>0.9253562904355164</v>
+      </c>
+      <c r="S11">
+        <v>1.573393092952955</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.145964643095056</v>
+        <v>3.008036967824467</v>
       </c>
       <c r="C12">
-        <v>0.7990639937766844</v>
+        <v>0.825188261472988</v>
       </c>
       <c r="D12">
-        <v>0.3373532687343044</v>
+        <v>0.3368792717930802</v>
       </c>
       <c r="E12">
-        <v>0.08500860579901293</v>
+        <v>0.08312652795386555</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.477802394216269</v>
+        <v>0.5106088584922901</v>
       </c>
       <c r="H12">
-        <v>0.05794361060964093</v>
+        <v>0.05785297036280923</v>
       </c>
       <c r="I12">
-        <v>0.004692641083483551</v>
+        <v>0.004707556671855073</v>
       </c>
       <c r="J12">
-        <v>0.327651631624704</v>
+        <v>0.2464569602295086</v>
       </c>
       <c r="K12">
-        <v>0.2693228999290618</v>
+        <v>0.2335819131937704</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1158564163649629</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.07332231372920006</v>
       </c>
       <c r="N12">
-        <v>0.1093049468448228</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.4489413061674412</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.916748504369167</v>
+        <v>0.1132678113953531</v>
       </c>
       <c r="Q12">
-        <v>1.64935670718117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.4355544048991291</v>
+      </c>
+      <c r="R12">
+        <v>0.9815703264747953</v>
+      </c>
+      <c r="S12">
+        <v>1.451784116387273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.057939321240781</v>
+        <v>2.93292657291363</v>
       </c>
       <c r="C13">
-        <v>0.8368685846012056</v>
+        <v>0.8599024114172664</v>
       </c>
       <c r="D13">
-        <v>0.3353332985638815</v>
+        <v>0.3348923941317565</v>
       </c>
       <c r="E13">
-        <v>0.097486844048424</v>
+        <v>0.09620083851961425</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4330513186792047</v>
+        <v>0.4633564934015055</v>
       </c>
       <c r="H13">
-        <v>0.1135176042416788</v>
+        <v>0.1134501405061599</v>
       </c>
       <c r="I13">
-        <v>0.004360045290193071</v>
+        <v>0.004415107095904425</v>
       </c>
       <c r="J13">
-        <v>0.3051444985936627</v>
+        <v>0.2361863931130728</v>
       </c>
       <c r="K13">
-        <v>0.2435822772818526</v>
+        <v>0.2137174017039136</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1095196996776533</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.0644567081322549</v>
       </c>
       <c r="N13">
-        <v>0.06830039094186091</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.393169986772989</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9677366651974069</v>
+        <v>0.07081963220841203</v>
       </c>
       <c r="Q13">
-        <v>1.507349202229193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3816194725362507</v>
+      </c>
+      <c r="R13">
+        <v>1.032469128994492</v>
+      </c>
+      <c r="S13">
+        <v>1.334202373368356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.954529720632365</v>
+        <v>2.844282221420826</v>
       </c>
       <c r="C14">
-        <v>0.8555497459928745</v>
+        <v>0.8773467299947981</v>
       </c>
       <c r="D14">
-        <v>0.3291667118535884</v>
+        <v>0.3287791718286712</v>
       </c>
       <c r="E14">
-        <v>0.1095930063181854</v>
+        <v>0.1087891909551004</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.3984892376609963</v>
+        <v>0.4179123171962118</v>
       </c>
       <c r="H14">
-        <v>0.1627224342770575</v>
+        <v>0.1626765447939533</v>
       </c>
       <c r="I14">
-        <v>0.004019953363459727</v>
+        <v>0.004145632386137521</v>
       </c>
       <c r="J14">
-        <v>0.2884825167521967</v>
+        <v>0.2377796174742528</v>
       </c>
       <c r="K14">
-        <v>0.2268867552597769</v>
+        <v>0.2018931265977209</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1062038296404673</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.05836620877158616</v>
       </c>
       <c r="N14">
-        <v>0.04877725516066356</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.3507276722385981</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>1.005389867626604</v>
+        <v>0.05046635127717281</v>
       </c>
       <c r="Q14">
-        <v>1.399142165187129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.3410136019993644</v>
+      </c>
+      <c r="R14">
+        <v>1.065929726995591</v>
+      </c>
+      <c r="S14">
+        <v>1.25212747924914</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.909063877089352</v>
+        <v>2.804918721862578</v>
       </c>
       <c r="C15">
-        <v>0.8563964459436022</v>
+        <v>0.8783538280440268</v>
       </c>
       <c r="D15">
-        <v>0.3254309611127724</v>
+        <v>0.3250701979794712</v>
       </c>
       <c r="E15">
-        <v>0.1127233364549802</v>
+        <v>0.1121019082466681</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.3880958839078943</v>
+        <v>0.4011796665410543</v>
       </c>
       <c r="H15">
-        <v>0.1751692942338678</v>
+        <v>0.1751322945096661</v>
       </c>
       <c r="I15">
-        <v>0.003953528418221275</v>
+        <v>0.004131683572707878</v>
       </c>
       <c r="J15">
-        <v>0.2837977262277036</v>
+        <v>0.2418425579296297</v>
       </c>
       <c r="K15">
-        <v>0.2229543328758439</v>
+        <v>0.1995324765346282</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.105748026816693</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.05676791596977004</v>
       </c>
       <c r="N15">
-        <v>0.04523323535792656</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.338343332325735</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>1.014699669579883</v>
+        <v>0.04676691578892189</v>
       </c>
       <c r="Q15">
-        <v>1.367266970671665</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.3293222110697371</v>
+      </c>
+      <c r="R15">
+        <v>1.072551190677899</v>
+      </c>
+      <c r="S15">
+        <v>1.230606526938715</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.72831444555402</v>
+        <v>2.645491541019851</v>
       </c>
       <c r="C16">
-        <v>0.8117515368899433</v>
+        <v>0.8367866242429614</v>
       </c>
       <c r="D16">
-        <v>0.30423500169276</v>
+        <v>0.3039949706465706</v>
       </c>
       <c r="E16">
-        <v>0.1085300842193924</v>
+        <v>0.1084250372951026</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.3732876301239969</v>
+        <v>0.356367077344899</v>
       </c>
       <c r="H16">
-        <v>0.1621221644653303</v>
+        <v>0.1621152128551131</v>
       </c>
       <c r="I16">
-        <v>0.003285432502766916</v>
+        <v>0.003595439674559664</v>
       </c>
       <c r="J16">
-        <v>0.2800167756365823</v>
+        <v>0.2761263504242848</v>
       </c>
       <c r="K16">
-        <v>0.2258896279990594</v>
+        <v>0.2058060671385249</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1097325122507691</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.05615002301449223</v>
       </c>
       <c r="N16">
-        <v>0.04548228477131744</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.3189154301847168</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>1.005351394350157</v>
+        <v>0.04733893397171762</v>
       </c>
       <c r="Q16">
-        <v>1.327759261316544</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.3120724192989357</v>
+      </c>
+      <c r="R16">
+        <v>1.049314310267548</v>
+      </c>
+      <c r="S16">
+        <v>1.225046514895013</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.644488289904814</v>
+        <v>2.568373978694751</v>
       </c>
       <c r="C17">
-        <v>0.767730169980041</v>
+        <v>0.7944748928794638</v>
       </c>
       <c r="D17">
-        <v>0.291341048423007</v>
+        <v>0.2911561668706497</v>
       </c>
       <c r="E17">
-        <v>0.09831697389042304</v>
+        <v>0.09816456129875739</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.380178711525744</v>
+        <v>0.3496602471248025</v>
       </c>
       <c r="H17">
-        <v>0.1241918582390014</v>
+        <v>0.124191226798203</v>
       </c>
       <c r="I17">
-        <v>0.002995144737165667</v>
+        <v>0.003361993206221214</v>
       </c>
       <c r="J17">
-        <v>0.285952997525996</v>
+        <v>0.2986818438044452</v>
       </c>
       <c r="K17">
-        <v>0.2368525750350763</v>
+        <v>0.2167169532802085</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1148043033563848</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.05861810968143644</v>
       </c>
       <c r="N17">
-        <v>0.05446755419169946</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.3261172897348814</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9784170369649274</v>
+        <v>0.0569935956760439</v>
       </c>
       <c r="Q17">
-        <v>1.354671660905723</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.3198551226739426</v>
+      </c>
+      <c r="R17">
+        <v>1.015818318943573</v>
+      </c>
+      <c r="S17">
+        <v>1.261546894707948</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.636518852262668</v>
+        <v>2.558112442645154</v>
       </c>
       <c r="C18">
-        <v>0.7188958435737334</v>
+        <v>0.7476261064539074</v>
       </c>
       <c r="D18">
-        <v>0.284020298995685</v>
+        <v>0.2838539151571666</v>
       </c>
       <c r="E18">
-        <v>0.08530055380601809</v>
+        <v>0.08463234652129081</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.407853912028969</v>
+        <v>0.368843566276567</v>
       </c>
       <c r="H18">
-        <v>0.07134085593224881</v>
+        <v>0.07134090273508775</v>
       </c>
       <c r="I18">
-        <v>0.002682711227721235</v>
+        <v>0.00301707943025864</v>
       </c>
       <c r="J18">
-        <v>0.3015248642624329</v>
+        <v>0.3202610731556348</v>
       </c>
       <c r="K18">
-        <v>0.2574190020774765</v>
+        <v>0.2347210348857445</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1221536148708893</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.06453835835023192</v>
       </c>
       <c r="N18">
-        <v>0.0798456800114451</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.3583149670648211</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9349333188452249</v>
+        <v>0.0835307178356075</v>
       </c>
       <c r="Q18">
-        <v>1.445872993058032</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3516538420434188</v>
+      </c>
+      <c r="R18">
+        <v>0.9692463199699404</v>
+      </c>
+      <c r="S18">
+        <v>1.347919632260528</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.683958041365088</v>
+        <v>2.597355407099656</v>
       </c>
       <c r="C19">
-        <v>0.674908676483426</v>
+        <v>0.7062241094223509</v>
       </c>
       <c r="D19">
-        <v>0.2816537839495084</v>
+        <v>0.2814796909349013</v>
       </c>
       <c r="E19">
-        <v>0.07632226819414267</v>
+        <v>0.07474042602992004</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4489191581301384</v>
+        <v>0.4034933294529708</v>
       </c>
       <c r="H19">
-        <v>0.02619290558602927</v>
+        <v>0.02619200290921242</v>
       </c>
       <c r="I19">
-        <v>0.002881552993997616</v>
+        <v>0.003231810309988425</v>
       </c>
       <c r="J19">
-        <v>0.3229236081400018</v>
+        <v>0.3415524206237421</v>
       </c>
       <c r="K19">
-        <v>0.2841180253188185</v>
+        <v>0.2570941156646853</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1307448573545003</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.0727893362019465</v>
       </c>
       <c r="N19">
-        <v>0.1286814106932894</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.4097173863545649</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8880581190541648</v>
+        <v>0.1340038146398683</v>
       </c>
       <c r="Q19">
-        <v>1.577710876496525</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.4019666796958319</v>
+      </c>
+      <c r="R19">
+        <v>0.9211883439723323</v>
+      </c>
+      <c r="S19">
+        <v>1.465577790629112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.8968846786276</v>
+        <v>2.785839005863977</v>
       </c>
       <c r="C20">
-        <v>0.638518315136821</v>
+        <v>0.674359394717726</v>
       </c>
       <c r="D20">
-        <v>0.2932487237877694</v>
+        <v>0.2929931557058012</v>
       </c>
       <c r="E20">
-        <v>0.07745771259392464</v>
+        <v>0.07401862454043751</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5303658389815098</v>
+        <v>0.4847112450340063</v>
       </c>
       <c r="H20">
-        <v>0.0005420143435674873</v>
+        <v>0.0005111618144288954</v>
       </c>
       <c r="I20">
-        <v>0.003641662544387358</v>
+        <v>0.003921521820378082</v>
       </c>
       <c r="J20">
-        <v>0.3620447569516898</v>
+        <v>0.3622814419484541</v>
       </c>
       <c r="K20">
-        <v>0.3295524046569689</v>
+        <v>0.2927043256414876</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1422687209136626</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.08885492243659598</v>
       </c>
       <c r="N20">
-        <v>0.2396157661568026</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.514556249688745</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8255387173654967</v>
+        <v>0.247843394344514</v>
       </c>
       <c r="Q20">
-        <v>1.832399624073929</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.5036671743305803</v>
+      </c>
+      <c r="R20">
+        <v>0.8612448911246915</v>
+      </c>
+      <c r="S20">
+        <v>1.678770521971728</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.268172437268731</v>
+        <v>3.107783644548135</v>
       </c>
       <c r="C21">
-        <v>0.6948624311994251</v>
+        <v>0.7270918919295468</v>
       </c>
       <c r="D21">
-        <v>0.3316676435492241</v>
+        <v>0.3311645152439269</v>
       </c>
       <c r="E21">
-        <v>0.0807316602499828</v>
+        <v>0.07676764720673601</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.5842578949122554</v>
+        <v>0.6098542098013411</v>
       </c>
       <c r="H21">
-        <v>0.001292492098411646</v>
+        <v>0.001126956435139714</v>
       </c>
       <c r="I21">
-        <v>0.005341384736563981</v>
+        <v>0.00533550365232216</v>
       </c>
       <c r="J21">
-        <v>0.3824554935555398</v>
+        <v>0.2848944883318865</v>
       </c>
       <c r="K21">
-        <v>0.3406624472796729</v>
+        <v>0.2908559285595267</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1358984910615781</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.09630749689590701</v>
       </c>
       <c r="N21">
-        <v>0.2741568708021589</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.5853986321935025</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8109901034747296</v>
+        <v>0.2825614353593551</v>
       </c>
       <c r="Q21">
-        <v>1.989731912112291</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.568189608297196</v>
+      </c>
+      <c r="R21">
+        <v>0.867438016853427</v>
+      </c>
+      <c r="S21">
+        <v>1.744280531865002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.509500124449744</v>
+        <v>3.314923186945578</v>
       </c>
       <c r="C22">
-        <v>0.7324410824556367</v>
+        <v>0.7611527261528863</v>
       </c>
       <c r="D22">
-        <v>0.3570067764728719</v>
+        <v>0.3563180366460443</v>
       </c>
       <c r="E22">
-        <v>0.08251516673515757</v>
+        <v>0.07833736017957804</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.6184625681255653</v>
+        <v>0.7005071322760585</v>
       </c>
       <c r="H22">
-        <v>0.002047194327119861</v>
+        <v>0.001750315425110283</v>
       </c>
       <c r="I22">
-        <v>0.00639421764043302</v>
+        <v>0.006074576815412236</v>
       </c>
       <c r="J22">
-        <v>0.3953410427015456</v>
+        <v>0.2380119335526985</v>
       </c>
       <c r="K22">
-        <v>0.3473069596794112</v>
+        <v>0.2886262706826628</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1315133307764249</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1010675203585798</v>
       </c>
       <c r="N22">
-        <v>0.2905689924376844</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.6277507885661038</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.803510094183423</v>
+        <v>0.2988961121782836</v>
       </c>
       <c r="Q22">
-        <v>2.089443119164656</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.6061268058584943</v>
+      </c>
+      <c r="R22">
+        <v>0.8747116367380841</v>
+      </c>
+      <c r="S22">
+        <v>1.779615834772727</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.384501980113271</v>
+        <v>3.211250226697132</v>
       </c>
       <c r="C23">
-        <v>0.7104973955335936</v>
+        <v>0.7425402521869273</v>
       </c>
       <c r="D23">
-        <v>0.3434658176249599</v>
+        <v>0.3428872869442188</v>
       </c>
       <c r="E23">
-        <v>0.08162359472749392</v>
+        <v>0.07753924930964562</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.6017532025054066</v>
+        <v>0.6440474426739371</v>
       </c>
       <c r="H23">
-        <v>0.001628939060490775</v>
+        <v>0.001409998617294961</v>
       </c>
       <c r="I23">
-        <v>0.005537432717332536</v>
+        <v>0.00533547562031611</v>
       </c>
       <c r="J23">
-        <v>0.3892397921496382</v>
+        <v>0.2713616806938504</v>
       </c>
       <c r="K23">
-        <v>0.3449276873132519</v>
+        <v>0.2917447856309927</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1344828323121554</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.09932027091078055</v>
       </c>
       <c r="N23">
-        <v>0.2815603490084868</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.6055041933292742</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.8062211529003207</v>
+        <v>0.2900085551883649</v>
       </c>
       <c r="Q23">
-        <v>2.041128787669834</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.586712008754219</v>
+      </c>
+      <c r="R23">
+        <v>0.8679712513490756</v>
+      </c>
+      <c r="S23">
+        <v>1.772815512746831</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.904616156175962</v>
+        <v>2.792896864793875</v>
       </c>
       <c r="C24">
-        <v>0.6308034135680316</v>
+        <v>0.6665817648495818</v>
       </c>
       <c r="D24">
-        <v>0.292654779438692</v>
+        <v>0.2923992407361879</v>
       </c>
       <c r="E24">
-        <v>0.07814169075969302</v>
+        <v>0.07455368887807712</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.53721462493084</v>
+        <v>0.4903483944693505</v>
       </c>
       <c r="H24">
-        <v>0.000456781684602392</v>
+        <v>0.0004245272536489431</v>
       </c>
       <c r="I24">
-        <v>0.003197431330375089</v>
+        <v>0.003375489689807054</v>
       </c>
       <c r="J24">
-        <v>0.3656052300309085</v>
+        <v>0.3663407602376623</v>
       </c>
       <c r="K24">
-        <v>0.3346908545608223</v>
+        <v>0.297196213463728</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1440020870236296</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.09049786084029421</v>
       </c>
       <c r="N24">
-        <v>0.2479546108238395</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.5207037518428379</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.8199246576914661</v>
+        <v>0.256394016108132</v>
       </c>
       <c r="Q24">
-        <v>1.85436847664613</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.5097113135888804</v>
+      </c>
+      <c r="R24">
+        <v>0.8548776985583331</v>
+      </c>
+      <c r="S24">
+        <v>1.699214577357964</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.3862004551018</v>
+        <v>2.305410356046082</v>
       </c>
       <c r="C25">
-        <v>0.5453317319494602</v>
+        <v>0.5680110002730316</v>
       </c>
       <c r="D25">
-        <v>0.2387114310787695</v>
+        <v>0.2386338377786501</v>
       </c>
       <c r="E25">
-        <v>0.07434673333730668</v>
+        <v>0.07135250035289342</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4702218876601307</v>
+        <v>0.4243349254565203</v>
       </c>
       <c r="H25">
-        <v>2.650761832256876E-10</v>
+        <v>6.800750409485801E-07</v>
       </c>
       <c r="I25">
-        <v>0.001610548429063385</v>
+        <v>0.001922831244709933</v>
       </c>
       <c r="J25">
-        <v>0.3416814463152349</v>
+        <v>0.3560396048306274</v>
       </c>
       <c r="K25">
-        <v>0.3251083915357462</v>
+        <v>0.29417113105346</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1513517051169586</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.0790375666596681</v>
       </c>
       <c r="N25">
-        <v>0.2118849159560625</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.4292658215022058</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8375254560165786</v>
+        <v>0.2193996512543066</v>
       </c>
       <c r="Q25">
-        <v>1.661731911042864</v>
+        <v>0.4213608845665675</v>
+      </c>
+      <c r="R25">
+        <v>0.8577651306053085</v>
+      </c>
+      <c r="S25">
+        <v>1.544186900146229</v>
       </c>
     </row>
   </sheetData>
